--- a/teaching/traditional_assets/database/data/turkey/turkey_telecom_wireless.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_telecom_wireless.xlsx
@@ -653,10 +653,10 @@
         <v>0.1553931124106563</v>
       </c>
       <c r="X2">
-        <v>0.1055594832147837</v>
+        <v>0.103561648791066</v>
       </c>
       <c r="Y2">
-        <v>0.04983362919587261</v>
+        <v>0.05183146361959025</v>
       </c>
       <c r="Z2">
         <v>0.7551592984272645</v>
@@ -665,10 +665,10 @@
         <v>0.1227030211743706</v>
       </c>
       <c r="AB2">
-        <v>0.09449616600547386</v>
+        <v>0.09131626249167887</v>
       </c>
       <c r="AC2">
-        <v>0.02820685516889671</v>
+        <v>0.0313867586826917</v>
       </c>
       <c r="AD2">
         <v>2959.9</v>
@@ -790,10 +790,10 @@
         <v>0.1553931124106563</v>
       </c>
       <c r="X3">
-        <v>0.1055594832147837</v>
+        <v>0.103561648791066</v>
       </c>
       <c r="Y3">
-        <v>0.04983362919587261</v>
+        <v>0.05183146361959025</v>
       </c>
       <c r="Z3">
         <v>0.7551592984272645</v>
@@ -802,10 +802,10 @@
         <v>0.1227030211743706</v>
       </c>
       <c r="AB3">
-        <v>0.09449616600547386</v>
+        <v>0.09131626249167887</v>
       </c>
       <c r="AC3">
-        <v>0.02820685516889671</v>
+        <v>0.0313867586826917</v>
       </c>
       <c r="AD3">
         <v>2959.9</v>
@@ -1111,13 +1111,13 @@
         <v>4732.8</v>
       </c>
       <c r="H2">
-        <v>9501.059644130681</v>
+        <v>9442.259098799361</v>
       </c>
       <c r="I2">
         <v>5940.1</v>
       </c>
       <c r="J2">
-        <v>7748.45964413068</v>
+        <v>7689.65909879936</v>
       </c>
       <c r="K2">
         <v>2959.9</v>
@@ -1126,16 +1126,16 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.09449616600547391</v>
+        <v>0.0913162624916789</v>
       </c>
       <c r="N2">
-        <v>0.07612980968587869</v>
+        <v>0.0726558386096582</v>
       </c>
       <c r="O2">
-        <v>0.0768062211802361</v>
+        <v>0.07173622118023611</v>
       </c>
       <c r="P2">
-        <v>0.0556392831802361</v>
+        <v>0.050569283180236</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.105559483214784</v>
+        <v>0.103561648791066</v>
       </c>
       <c r="T2">
-        <v>0.07612980968587869</v>
+        <v>0.0726558386096582</v>
       </c>
       <c r="U2">
         <v>0.937951161725495</v>
@@ -1166,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.04863241433363596</v>
+        <v>0.04863241433363595</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>4732.8</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.09846951433363596</v>
+        <v>0.09196951433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07612980968587874</v>
+        <v>0.07265583860965816</v>
       </c>
       <c r="C2">
-        <v>9501.059644130675</v>
+        <v>9442.259098799361</v>
       </c>
       <c r="D2">
-        <v>7748.459644130676</v>
+        <v>7689.659098799361</v>
       </c>
       <c r="E2">
         <v>-2959.9</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07612980968587874</v>
+        <v>0.07265583860965816</v>
       </c>
       <c r="T2">
         <v>0.6304226924540495</v>
       </c>
       <c r="U2">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1455,13 +1455,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.07639547693637215</v>
+        <v>0.07292914859651928</v>
       </c>
       <c r="C3">
-        <v>9390.161264197865</v>
+        <v>9332.302258331336</v>
       </c>
       <c r="D3">
-        <v>7714.488264197864</v>
+        <v>7656.629258331335</v>
       </c>
       <c r="E3">
         <v>-2882.973</v>
@@ -1488,37 +1488,37 @@
         <v>758</v>
       </c>
       <c r="M3">
-        <v>5.487388637443614</v>
+        <v>4.987363137443614</v>
       </c>
       <c r="N3">
-        <v>752.5126113625564</v>
+        <v>753.0126368625564</v>
       </c>
       <c r="O3">
-        <v>165.5527744997624</v>
+        <v>165.6627801097624</v>
       </c>
       <c r="P3">
-        <v>586.959836862794</v>
+        <v>587.349856752794</v>
       </c>
       <c r="Q3">
-        <v>680.959836862794</v>
+        <v>681.349856752794</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.07660513545916139</v>
+        <v>0.07315500582294637</v>
       </c>
       <c r="T3">
         <v>0.6353896591218692</v>
       </c>
       <c r="U3">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>138.1349217417788</v>
+        <v>151.9841204882727</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.07666114418686558</v>
+        <v>0.07320245858338038</v>
       </c>
       <c r="C4">
-        <v>9279.559463740276</v>
+        <v>9222.627954262207</v>
       </c>
       <c r="D4">
-        <v>7680.813463740275</v>
+        <v>7623.881954262206</v>
       </c>
       <c r="E4">
         <v>-2806.046</v>
@@ -1570,37 +1570,37 @@
         <v>758</v>
       </c>
       <c r="M4">
-        <v>10.97477727488723</v>
+        <v>9.974726274887228</v>
       </c>
       <c r="N4">
-        <v>747.0252227251128</v>
+        <v>748.0252737251128</v>
       </c>
       <c r="O4">
-        <v>164.3455489995248</v>
+        <v>164.5655602195248</v>
       </c>
       <c r="P4">
-        <v>582.679673725588</v>
+        <v>583.459713505588</v>
       </c>
       <c r="Q4">
-        <v>676.679673725588</v>
+        <v>677.459713505588</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.07709016175842945</v>
+        <v>0.07366436012222007</v>
       </c>
       <c r="T4">
         <v>0.6404579924563792</v>
       </c>
       <c r="U4">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>69.06746087088942</v>
+        <v>75.99206024413635</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.07692681143735902</v>
+        <v>0.0734757685702415</v>
       </c>
       <c r="C5">
-        <v>9169.250375807289</v>
+        <v>9113.232576817383</v>
       </c>
       <c r="D5">
-        <v>7647.43137580729</v>
+        <v>7591.413576817384</v>
       </c>
       <c r="E5">
         <v>-2729.119</v>
@@ -1652,37 +1652,37 @@
         <v>758</v>
       </c>
       <c r="M5">
-        <v>16.46216591233084</v>
+        <v>14.96208941233084</v>
       </c>
       <c r="N5">
-        <v>741.5378340876691</v>
+        <v>743.0379105876691</v>
       </c>
       <c r="O5">
-        <v>163.1383234992872</v>
+        <v>163.4683403292872</v>
       </c>
       <c r="P5">
-        <v>578.3995105883819</v>
+        <v>579.5695702583819</v>
       </c>
       <c r="Q5">
-        <v>672.3995105883819</v>
+        <v>673.5695702583819</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.07758518859995045</v>
+        <v>0.07418421657199425</v>
       </c>
       <c r="T5">
         <v>0.6456308275091266</v>
       </c>
       <c r="U5">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>46.04497391392628</v>
+        <v>50.6613734960909</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.07719247868785242</v>
+        <v>0.07374907855710261</v>
       </c>
       <c r="C6">
-        <v>9059.230200383023</v>
+        <v>9004.112577454347</v>
       </c>
       <c r="D6">
-        <v>7614.338200383023</v>
+        <v>7559.220577454347</v>
       </c>
       <c r="E6">
         <v>-2652.192</v>
@@ -1734,37 +1734,37 @@
         <v>758</v>
       </c>
       <c r="M6">
-        <v>21.94955454977446</v>
+        <v>19.94945254977446</v>
       </c>
       <c r="N6">
-        <v>736.0504454502255</v>
+        <v>738.0505474502255</v>
       </c>
       <c r="O6">
-        <v>161.9310979990496</v>
+        <v>162.3711204390496</v>
       </c>
       <c r="P6">
-        <v>574.1193474511759</v>
+        <v>575.6794270111759</v>
       </c>
       <c r="Q6">
-        <v>668.1193474511759</v>
+        <v>669.6794270111759</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.07809052850066978</v>
+        <v>0.07471490336447205</v>
       </c>
       <c r="T6">
         <v>0.650911429958806</v>
       </c>
       <c r="U6">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>34.5337304354447</v>
+        <v>37.99603012206817</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.07745814593834587</v>
+        <v>0.07402238854396373</v>
       </c>
       <c r="C7">
-        <v>8949.495202944279</v>
+        <v>8895.264467569765</v>
       </c>
       <c r="D7">
-        <v>7581.53020294428</v>
+        <v>7527.299467569766</v>
       </c>
       <c r="E7">
         <v>-2575.265</v>
@@ -1816,37 +1816,37 @@
         <v>758</v>
       </c>
       <c r="M7">
-        <v>27.43694318721807</v>
+        <v>24.93681568721807</v>
       </c>
       <c r="N7">
-        <v>730.563056812782</v>
+        <v>733.0631843127819</v>
       </c>
       <c r="O7">
-        <v>160.723872498812</v>
+        <v>161.273900548812</v>
       </c>
       <c r="P7">
-        <v>569.8391843139699</v>
+        <v>571.7892837639699</v>
       </c>
       <c r="Q7">
-        <v>663.8391843139699</v>
+        <v>665.7892837639699</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.07860650713614112</v>
+        <v>0.07525676251047572</v>
       </c>
       <c r="T7">
         <v>0.6563032029863737</v>
       </c>
       <c r="U7">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>27.62698434835577</v>
+        <v>30.39682409765454</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1865,13 +1865,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.07772381318883929</v>
+        <v>0.07429569853082484</v>
       </c>
       <c r="C8">
-        <v>8840.0417130557</v>
+        <v>8786.684817239291</v>
       </c>
       <c r="D8">
-        <v>7549.0037130557</v>
+        <v>7495.646817239292</v>
       </c>
       <c r="E8">
         <v>-2498.338</v>
@@ -1898,37 +1898,37 @@
         <v>758</v>
       </c>
       <c r="M8">
-        <v>32.92433182466169</v>
+        <v>29.92417882466168</v>
       </c>
       <c r="N8">
-        <v>725.0756681753384</v>
+        <v>728.0758211753383</v>
       </c>
       <c r="O8">
-        <v>159.5166469985744</v>
+        <v>160.1766806585744</v>
       </c>
       <c r="P8">
-        <v>565.559021176764</v>
+        <v>567.8991405167639</v>
       </c>
       <c r="Q8">
-        <v>659.559021176764</v>
+        <v>661.8991405167639</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.07913346404045227</v>
+        <v>0.07581015057447944</v>
       </c>
       <c r="T8">
         <v>0.6618096945889957</v>
       </c>
       <c r="U8">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>23.02248695696314</v>
+        <v>25.33068674804545</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1947,13 +1947,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.07798948043933272</v>
+        <v>0.07456900851768596</v>
       </c>
       <c r="C9">
-        <v>8730.866123000849</v>
+        <v>8678.37025398896</v>
       </c>
       <c r="D9">
-        <v>7516.755123000849</v>
+        <v>7464.25925398896</v>
       </c>
       <c r="E9">
         <v>-2421.411</v>
@@ -1980,37 +1980,37 @@
         <v>758</v>
       </c>
       <c r="M9">
-        <v>38.41172046210531</v>
+        <v>34.9115419621053</v>
       </c>
       <c r="N9">
-        <v>719.5882795378947</v>
+        <v>723.0884580378947</v>
       </c>
       <c r="O9">
-        <v>158.3094214983368</v>
+        <v>159.0794607683368</v>
       </c>
       <c r="P9">
-        <v>561.2788580395578</v>
+        <v>564.0089972695579</v>
       </c>
       <c r="Q9">
-        <v>655.2788580395578</v>
+        <v>658.0089972695579</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.07967175335130774</v>
+        <v>0.0763754394570639</v>
       </c>
       <c r="T9">
         <v>0.667434605365868</v>
       </c>
       <c r="U9">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>19.73356024882554</v>
+        <v>21.71201721261038</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2029,13 +2029,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.07825514768982615</v>
+        <v>0.07484231850454705</v>
       </c>
       <c r="C10">
-        <v>8621.964886448282</v>
+        <v>8570.31746159738</v>
       </c>
       <c r="D10">
-        <v>7484.780886448281</v>
+        <v>7433.133461597379</v>
       </c>
       <c r="E10">
         <v>-2344.484</v>
@@ -2062,37 +2062,37 @@
         <v>758</v>
       </c>
       <c r="M10">
-        <v>43.89910909954892</v>
+        <v>39.89890509954891</v>
       </c>
       <c r="N10">
-        <v>714.1008909004511</v>
+        <v>718.1010949004511</v>
       </c>
       <c r="O10">
-        <v>157.1021959980992</v>
+        <v>157.9822408780992</v>
       </c>
       <c r="P10">
-        <v>556.9986949023519</v>
+        <v>560.1188540223519</v>
       </c>
       <c r="Q10">
-        <v>650.9986949023519</v>
+        <v>654.1188540223519</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.08022174460370354</v>
+        <v>0.07695301722840019</v>
       </c>
       <c r="T10">
         <v>0.6731817968118023</v>
       </c>
       <c r="U10">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>17.26686521772235</v>
+        <v>18.99801506103409</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2111,13 +2111,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.07852081494031957</v>
+        <v>0.07511562849140818</v>
       </c>
       <c r="C11">
-        <v>8513.334517151494</v>
+        <v>8462.523178927708</v>
       </c>
       <c r="D11">
-        <v>7453.077517151495</v>
+        <v>7402.266178927708</v>
       </c>
       <c r="E11">
         <v>-2267.557</v>
@@ -2144,37 +2144,37 @@
         <v>758</v>
       </c>
       <c r="M11">
-        <v>49.38649773699253</v>
+        <v>44.88626823699252</v>
       </c>
       <c r="N11">
-        <v>708.6135022630075</v>
+        <v>713.1137317630075</v>
       </c>
       <c r="O11">
-        <v>155.8949704978616</v>
+        <v>156.8850209878617</v>
       </c>
       <c r="P11">
-        <v>552.7185317651458</v>
+        <v>556.2287107751458</v>
       </c>
       <c r="Q11">
-        <v>646.7185317651458</v>
+        <v>650.2287107751458</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.08078382357593222</v>
+        <v>0.07754328901668894</v>
       </c>
       <c r="T11">
         <v>0.6790553001576476</v>
       </c>
       <c r="U11">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>15.34832463797543</v>
+        <v>16.88712449869697</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2193,13 +2193,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.078786482190813</v>
+        <v>0.0753889384782693</v>
       </c>
       <c r="C12">
-        <v>8404.971587681777</v>
+        <v>8354.984198788696</v>
       </c>
       <c r="D12">
-        <v>7421.641587681777</v>
+        <v>7371.654198788697</v>
       </c>
       <c r="E12">
         <v>-2190.63</v>
@@ -2226,37 +2226,37 @@
         <v>758</v>
       </c>
       <c r="M12">
-        <v>54.87388637443615</v>
+        <v>49.87363137443614</v>
       </c>
       <c r="N12">
-        <v>703.1261136255639</v>
+        <v>708.1263686255638</v>
       </c>
       <c r="O12">
-        <v>154.6877449976241</v>
+        <v>155.7878010976241</v>
       </c>
       <c r="P12">
-        <v>548.4383686279398</v>
+        <v>552.3385675279397</v>
       </c>
       <c r="Q12">
-        <v>642.4383686279398</v>
+        <v>646.3385675279397</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.0813583931919882</v>
+        <v>0.07814667795582854</v>
       </c>
       <c r="T12">
         <v>0.6850593258000671</v>
       </c>
       <c r="U12">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>13.81349217417788</v>
+        <v>15.19841204882727</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2275,13 +2275,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.07918942944130641</v>
+        <v>0.07566224846513039</v>
       </c>
       <c r="C13">
-        <v>8280.867477897677</v>
+        <v>8247.697366823779</v>
       </c>
       <c r="D13">
-        <v>7374.464477897677</v>
+        <v>7341.294366823779</v>
       </c>
       <c r="E13">
         <v>-2113.703</v>
@@ -2308,45 +2308,45 @@
         <v>758</v>
       </c>
       <c r="M13">
-        <v>61.71519021187975</v>
+        <v>54.86099451187975</v>
       </c>
       <c r="N13">
-        <v>696.2848097881202</v>
+        <v>703.1390054881202</v>
       </c>
       <c r="O13">
-        <v>153.1826581533865</v>
+        <v>154.6905812073865</v>
       </c>
       <c r="P13">
-        <v>543.1021516347338</v>
+        <v>548.4484242807338</v>
       </c>
       <c r="Q13">
-        <v>637.1021516347338</v>
+        <v>642.4484242807338</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.0819458744848095</v>
+        <v>0.07876362619697128</v>
       </c>
       <c r="T13">
         <v>0.6911982733670354</v>
       </c>
       <c r="U13">
-        <v>0.07293241433363595</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.05688728318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y13">
-        <v>12.28222739649096</v>
+        <v>13.81673822620661</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2357,13 +2357,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.07946757669179985</v>
+        <v>0.07608531845199151</v>
       </c>
       <c r="C14">
-        <v>8171.723341248704</v>
+        <v>8124.264916474711</v>
       </c>
       <c r="D14">
-        <v>7342.247341248703</v>
+        <v>7294.788916474711</v>
       </c>
       <c r="E14">
         <v>-2036.776</v>
@@ -2390,37 +2390,37 @@
         <v>758</v>
       </c>
       <c r="M14">
-        <v>67.32566204932336</v>
+        <v>61.32535604932335</v>
       </c>
       <c r="N14">
-        <v>690.6743379506767</v>
+        <v>696.6746439506767</v>
       </c>
       <c r="O14">
-        <v>151.9483543491489</v>
+        <v>153.2684216691489</v>
       </c>
       <c r="P14">
-        <v>538.7259836015278</v>
+        <v>543.4062222815278</v>
       </c>
       <c r="Q14">
-        <v>632.7259836015278</v>
+        <v>637.4062222815278</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.08254670762519492</v>
+        <v>0.07939459598904908</v>
       </c>
       <c r="T14">
         <v>0.6974767424696166</v>
       </c>
       <c r="U14">
-        <v>0.07293241433363595</v>
+        <v>0.06643241433363595</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.05688728318023605</v>
+        <v>0.05181728318023604</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>11.25870844678338</v>
+        <v>12.36030328776809</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2439,13 +2439,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.07974572394229328</v>
+        <v>0.07637110843885263</v>
       </c>
       <c r="C15">
-        <v>8062.859476912722</v>
+        <v>8016.254821575591</v>
       </c>
       <c r="D15">
-        <v>7310.310476912723</v>
+        <v>7263.705821575592</v>
       </c>
       <c r="E15">
         <v>-1959.849</v>
@@ -2472,37 +2472,37 @@
         <v>758</v>
       </c>
       <c r="M15">
-        <v>72.93613388676698</v>
+        <v>66.43580238676698</v>
       </c>
       <c r="N15">
-        <v>685.063866113233</v>
+        <v>691.564197613233</v>
       </c>
       <c r="O15">
-        <v>150.7140505449113</v>
+        <v>152.1441234749113</v>
       </c>
       <c r="P15">
-        <v>534.3498155683217</v>
+        <v>539.4200741383218</v>
       </c>
       <c r="Q15">
-        <v>628.3498155683217</v>
+        <v>633.4200741383218</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.08316135302168115</v>
+        <v>0.08004007083381832</v>
       </c>
       <c r="T15">
         <v>0.7038995441952456</v>
       </c>
       <c r="U15">
-        <v>0.07293241433363595</v>
+        <v>0.06643241433363595</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.05688728318023605</v>
+        <v>0.05181728318023604</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>10.39265395087696</v>
+        <v>11.40951072717054</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.0802641111927867</v>
+        <v>0.07665689842571374</v>
       </c>
       <c r="C16">
-        <v>7927.146717235576</v>
+        <v>7908.508492897617</v>
       </c>
       <c r="D16">
-        <v>7251.524717235576</v>
+        <v>7232.886492897617</v>
       </c>
       <c r="E16">
         <v>-1882.922</v>
@@ -2554,45 +2554,45 @@
         <v>758</v>
       </c>
       <c r="M16">
-        <v>80.91595732421061</v>
+        <v>71.5462487242106</v>
       </c>
       <c r="N16">
-        <v>677.0840426757894</v>
+        <v>686.4537512757894</v>
       </c>
       <c r="O16">
-        <v>148.9584893886737</v>
+        <v>151.0198252806737</v>
       </c>
       <c r="P16">
-        <v>528.1255532871157</v>
+        <v>535.4339259951157</v>
       </c>
       <c r="Q16">
-        <v>622.1255532871157</v>
+        <v>629.4339259951157</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.08379029249715542</v>
+        <v>0.08070055672148918</v>
       </c>
       <c r="T16">
         <v>0.710471713402866</v>
       </c>
       <c r="U16">
-        <v>0.07513241433363596</v>
+        <v>0.06643241433363595</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.05860328318023605</v>
+        <v>0.05181728318023604</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y16">
-        <v>9.367744324680952</v>
+        <v>10.59454567522979</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.08055941844328011</v>
+        <v>0.07694268841257484</v>
       </c>
       <c r="C17">
-        <v>7817.15228275873</v>
+        <v>7801.02258720828</v>
       </c>
       <c r="D17">
-        <v>7218.457282758729</v>
+        <v>7202.32758720828</v>
       </c>
       <c r="E17">
         <v>-1805.995</v>
@@ -2636,45 +2636,45 @@
         <v>758</v>
       </c>
       <c r="M17">
-        <v>86.6956685616542</v>
+        <v>76.65669506165419</v>
       </c>
       <c r="N17">
-        <v>671.3043314383458</v>
+        <v>681.3433049383458</v>
       </c>
       <c r="O17">
-        <v>147.6869529164361</v>
+        <v>149.8955270864361</v>
       </c>
       <c r="P17">
-        <v>523.6173785219097</v>
+        <v>531.4477778519097</v>
       </c>
       <c r="Q17">
-        <v>617.6173785219097</v>
+        <v>625.4477778519097</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.08443403054852319</v>
+        <v>0.08137658345357582</v>
       </c>
       <c r="T17">
         <v>0.7171985218859598</v>
       </c>
       <c r="U17">
-        <v>0.07513241433363596</v>
+        <v>0.06643241433363595</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.05860328318023605</v>
+        <v>0.05181728318023604</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y17">
-        <v>8.74322803636889</v>
+        <v>9.888242630214469</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2685,13 +2685,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.08085472569377357</v>
+        <v>0.07750303839943597</v>
       </c>
       <c r="C18">
-        <v>7707.458058698634</v>
+        <v>7664.921916011615</v>
       </c>
       <c r="D18">
-        <v>7185.690058698634</v>
+        <v>7143.153916011616</v>
       </c>
       <c r="E18">
         <v>-1729.068</v>
@@ -2718,37 +2718,37 @@
         <v>758</v>
       </c>
       <c r="M18">
-        <v>92.47537979909782</v>
+        <v>84.47497179909782</v>
       </c>
       <c r="N18">
-        <v>665.5246202009022</v>
+        <v>673.5250282009022</v>
       </c>
       <c r="O18">
-        <v>146.4154164441985</v>
+        <v>148.1755062041985</v>
       </c>
       <c r="P18">
-        <v>519.1092037567037</v>
+        <v>525.3495219967037</v>
       </c>
       <c r="Q18">
-        <v>613.1092037567037</v>
+        <v>619.3495219967037</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.08509309569635215</v>
+        <v>0.08206870606023595</v>
       </c>
       <c r="T18">
         <v>0.724085492475794</v>
       </c>
       <c r="U18">
-        <v>0.07513241433363596</v>
+        <v>0.06863241433363595</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.05860328318023605</v>
+        <v>0.05353328318023605</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>8.196776284095833</v>
+        <v>8.973071950857939</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.08115003294426701</v>
+        <v>0.0778059883862971</v>
       </c>
       <c r="C19">
-        <v>7598.05997523427</v>
+        <v>7556.406168283462</v>
       </c>
       <c r="D19">
-        <v>7153.218975234269</v>
+        <v>7111.565168283461</v>
       </c>
       <c r="E19">
         <v>-1652.141</v>
@@ -2800,37 +2800,37 @@
         <v>758</v>
       </c>
       <c r="M19">
-        <v>98.25509103654144</v>
+        <v>89.75465753654144</v>
       </c>
       <c r="N19">
-        <v>659.7449089634586</v>
+        <v>668.2453424634585</v>
       </c>
       <c r="O19">
-        <v>145.1438799719609</v>
+        <v>147.0139753419609</v>
       </c>
       <c r="P19">
-        <v>514.6010289914977</v>
+        <v>521.2313671214977</v>
       </c>
       <c r="Q19">
-        <v>608.6010289914977</v>
+        <v>615.2313671214977</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.08576804193208057</v>
+        <v>0.08277750632006863</v>
       </c>
       <c r="T19">
         <v>0.7311384141641785</v>
       </c>
       <c r="U19">
-        <v>0.07513241433363596</v>
+        <v>0.06863241433363595</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.05860328318023605</v>
+        <v>0.05353328318023605</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>7.714612973266667</v>
+        <v>8.445244189042764</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.08159978019476043</v>
+        <v>0.07810893837315817</v>
       </c>
       <c r="C20">
-        <v>7472.240098133971</v>
+        <v>7448.168576589555</v>
       </c>
       <c r="D20">
-        <v>7104.326098133971</v>
+        <v>7080.254576589554</v>
       </c>
       <c r="E20">
         <v>-1575.214</v>
@@ -2882,45 +2882,45 @@
         <v>758</v>
       </c>
       <c r="M20">
-        <v>105.557956873985</v>
+        <v>95.03434327398504</v>
       </c>
       <c r="N20">
-        <v>652.4420431260149</v>
+        <v>662.9656567260149</v>
       </c>
       <c r="O20">
-        <v>143.5372494877233</v>
+        <v>145.8524444797233</v>
       </c>
       <c r="P20">
-        <v>508.9047936382916</v>
+        <v>517.1132122462916</v>
       </c>
       <c r="Q20">
-        <v>602.9047936382916</v>
+        <v>611.1132122462916</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.08645945027111943</v>
+        <v>0.0835035943911167</v>
       </c>
       <c r="T20">
         <v>0.7383633583327671</v>
       </c>
       <c r="U20">
-        <v>0.07623241433363595</v>
+        <v>0.06863241433363595</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.05946128318023605</v>
+        <v>0.05353328318023605</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y20">
-        <v>7.180889271141345</v>
+        <v>7.976063956318168</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.08190366744525386</v>
+        <v>0.0785749083600193</v>
       </c>
       <c r="C21">
-        <v>7362.653576990781</v>
+        <v>7323.617029547483</v>
       </c>
       <c r="D21">
-        <v>7071.666576990781</v>
+        <v>7032.630029547483</v>
       </c>
       <c r="E21">
         <v>-1498.287</v>
@@ -2964,37 +2964,37 @@
         <v>758</v>
       </c>
       <c r="M21">
-        <v>111.4222878114286</v>
+        <v>101.9218033114286</v>
       </c>
       <c r="N21">
-        <v>646.5777121885714</v>
+        <v>656.0781966885713</v>
       </c>
       <c r="O21">
-        <v>142.2470966814857</v>
+        <v>144.3372032714857</v>
       </c>
       <c r="P21">
-        <v>504.3306155070857</v>
+        <v>511.7409934170856</v>
       </c>
       <c r="Q21">
-        <v>598.3306155070857</v>
+        <v>605.7409934170856</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.08716793042099877</v>
+        <v>0.08424761056268451</v>
       </c>
       <c r="T21">
         <v>0.7457666961845312</v>
       </c>
       <c r="U21">
-        <v>0.07623241433363595</v>
+        <v>0.06973241433363594</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.05946128318023605</v>
+        <v>0.05439128318023604</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>6.802947730554959</v>
+        <v>7.437074064357772</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3013,13 +3013,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.08220755469574728</v>
+        <v>0.07888643834688042</v>
       </c>
       <c r="C22">
-        <v>7253.36596196236</v>
+        <v>7215.205803701884</v>
       </c>
       <c r="D22">
-        <v>7039.30596196236</v>
+        <v>7001.145803701885</v>
       </c>
       <c r="E22">
         <v>-1421.36</v>
@@ -3046,37 +3046,37 @@
         <v>758</v>
       </c>
       <c r="M22">
-        <v>117.2866187488723</v>
+        <v>107.2861087488723</v>
       </c>
       <c r="N22">
-        <v>640.7133812511278</v>
+        <v>650.7138912511277</v>
       </c>
       <c r="O22">
-        <v>140.9569438752481</v>
+        <v>143.1570560752481</v>
       </c>
       <c r="P22">
-        <v>499.7564373758797</v>
+        <v>507.5568351758797</v>
       </c>
       <c r="Q22">
-        <v>593.7564373758796</v>
+        <v>601.5568351758797</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.08789412257462509</v>
+        <v>0.08501022713854152</v>
       </c>
       <c r="T22">
         <v>0.7533551174825892</v>
       </c>
       <c r="U22">
-        <v>0.07623241433363595</v>
+        <v>0.06973241433363594</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.05946128318023605</v>
+        <v>0.05439128318023604</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>6.462800344027211</v>
+        <v>7.065220361139882</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3095,13 +3095,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.08251144194624069</v>
+        <v>0.07919796833374151</v>
       </c>
       <c r="C23">
-        <v>7144.373168273078</v>
+        <v>7107.075223508738</v>
       </c>
       <c r="D23">
-        <v>7007.240168273079</v>
+        <v>6969.942223508739</v>
       </c>
       <c r="E23">
         <v>-1344.433</v>
@@ -3128,37 +3128,37 @@
         <v>758</v>
       </c>
       <c r="M23">
-        <v>123.1509496863159</v>
+        <v>112.6504141863159</v>
       </c>
       <c r="N23">
-        <v>634.8490503136841</v>
+        <v>645.3495858136841</v>
       </c>
       <c r="O23">
-        <v>139.6667910690105</v>
+        <v>141.9769088790105</v>
       </c>
       <c r="P23">
-        <v>495.1822592446736</v>
+        <v>503.3726769346736</v>
       </c>
       <c r="Q23">
-        <v>589.1822592446736</v>
+        <v>597.3726769346736</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.08863869933973559</v>
+        <v>0.08579215046315436</v>
       </c>
       <c r="T23">
         <v>0.7611356507122434</v>
       </c>
       <c r="U23">
-        <v>0.07623241433363595</v>
+        <v>0.06973241433363594</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.05946128318023605</v>
+        <v>0.05439128318023604</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>6.155047946692582</v>
+        <v>6.728781296323698</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3177,13 +3177,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.08307272919673413</v>
+        <v>0.07950949832060264</v>
       </c>
       <c r="C24">
-        <v>7008.981547994405</v>
+        <v>6999.221553168534</v>
       </c>
       <c r="D24">
-        <v>6948.775547994404</v>
+        <v>6939.015553168534</v>
       </c>
       <c r="E24">
         <v>-1267.506</v>
@@ -3210,45 +3210,45 @@
         <v>758</v>
       </c>
       <c r="M24">
-        <v>131.5538716237595</v>
+        <v>118.0147196237595</v>
       </c>
       <c r="N24">
-        <v>626.4461283762405</v>
+        <v>639.9852803762406</v>
       </c>
       <c r="O24">
-        <v>137.8181482427729</v>
+        <v>140.7967616827729</v>
       </c>
       <c r="P24">
-        <v>488.6279801334676</v>
+        <v>499.1885186934676</v>
       </c>
       <c r="Q24">
-        <v>582.6279801334676</v>
+        <v>593.1885186934676</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.08940236781677205</v>
+        <v>0.08659412310378295</v>
       </c>
       <c r="T24">
         <v>0.7691156847939403</v>
       </c>
       <c r="U24">
-        <v>0.07773241433363595</v>
+        <v>0.06973241433363594</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.06063128318023604</v>
+        <v>0.05439128318023604</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y24">
-        <v>5.76189807752568</v>
+        <v>6.422927601036257</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3259,13 +3259,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.08338831644722755</v>
+        <v>0.07982102830746375</v>
       </c>
       <c r="C25">
-        <v>6899.608925958535</v>
+        <v>6891.641122894051</v>
       </c>
       <c r="D25">
-        <v>6916.329925958535</v>
+        <v>6908.362122894051</v>
       </c>
       <c r="E25">
         <v>-1190.579</v>
@@ -3292,45 +3292,45 @@
         <v>758</v>
       </c>
       <c r="M25">
-        <v>137.5335930612031</v>
+        <v>123.3790250612031</v>
       </c>
       <c r="N25">
-        <v>620.4664069387969</v>
+        <v>634.620974938797</v>
       </c>
       <c r="O25">
-        <v>136.5026095265353</v>
+        <v>139.6166144865353</v>
       </c>
       <c r="P25">
-        <v>483.9637974122616</v>
+        <v>495.0043604522616</v>
       </c>
       <c r="Q25">
-        <v>577.9637974122616</v>
+        <v>589.0043604522616</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.09018587183866658</v>
+        <v>0.08741692620260968</v>
       </c>
       <c r="T25">
         <v>0.7773029924881488</v>
       </c>
       <c r="U25">
-        <v>0.07773241433363595</v>
+        <v>0.06973241433363594</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.06063128318023604</v>
+        <v>0.05439128318023604</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y25">
-        <v>5.511380769807173</v>
+        <v>6.143669879252073</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3341,13 +3341,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.08370390369772097</v>
+        <v>0.08041335829432486</v>
       </c>
       <c r="C26">
-        <v>6790.537889666379</v>
+        <v>6757.171768776145</v>
       </c>
       <c r="D26">
-        <v>6884.185889666379</v>
+        <v>6850.819768776144</v>
       </c>
       <c r="E26">
         <v>-1113.652</v>
@@ -3374,37 +3374,37 @@
         <v>758</v>
       </c>
       <c r="M26">
-        <v>143.5133144986467</v>
+        <v>131.5127024986467</v>
       </c>
       <c r="N26">
-        <v>614.4866855013533</v>
+        <v>626.4872975013533</v>
       </c>
       <c r="O26">
-        <v>135.1870708102977</v>
+        <v>137.8272054502977</v>
       </c>
       <c r="P26">
-        <v>479.2996146910556</v>
+        <v>488.6600920510556</v>
       </c>
       <c r="Q26">
-        <v>573.2996146910556</v>
+        <v>582.6600920510556</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.09098999438745306</v>
+        <v>0.08826138201456343</v>
       </c>
       <c r="T26">
         <v>0.7857057556479943</v>
       </c>
       <c r="U26">
-        <v>0.07773241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.06063128318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>5.281739904398541</v>
+        <v>5.763701799130772</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.0840194909482144</v>
+        <v>0.08073658828118596</v>
       </c>
       <c r="C27">
-        <v>6681.764253659455</v>
+        <v>6649.246782490277</v>
       </c>
       <c r="D27">
-        <v>6852.339253659455</v>
+        <v>6819.821782490278</v>
       </c>
       <c r="E27">
         <v>-1036.725</v>
@@ -3456,37 +3456,37 @@
         <v>758</v>
       </c>
       <c r="M27">
-        <v>149.4930359360903</v>
+        <v>136.9923984360903</v>
       </c>
       <c r="N27">
-        <v>608.5069640639097</v>
+        <v>621.0076015639097</v>
       </c>
       <c r="O27">
-        <v>133.8715320940601</v>
+        <v>136.6216723440601</v>
       </c>
       <c r="P27">
-        <v>474.6354319698495</v>
+        <v>484.3859292198496</v>
       </c>
       <c r="Q27">
-        <v>568.6354319698496</v>
+        <v>578.3859292198496</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.0918155602042072</v>
+        <v>0.08912835664816929</v>
       </c>
       <c r="T27">
         <v>0.7943325924921023</v>
       </c>
       <c r="U27">
-        <v>0.07773241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.06063128318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>5.070470308222599</v>
+        <v>5.533153727165541</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.08433507819870784</v>
+        <v>0.08105981826804709</v>
       </c>
       <c r="C28">
-        <v>6573.283909571324</v>
+        <v>6541.601046596666</v>
       </c>
       <c r="D28">
-        <v>6820.785909571326</v>
+        <v>6789.103046596667</v>
       </c>
       <c r="E28">
         <v>-959.7979999999998</v>
@@ -3538,37 +3538,37 @@
         <v>758</v>
       </c>
       <c r="M28">
-        <v>155.472757373534</v>
+        <v>142.4720943735339</v>
       </c>
       <c r="N28">
-        <v>602.527242626466</v>
+        <v>615.527905626466</v>
       </c>
       <c r="O28">
-        <v>132.5559933778225</v>
+        <v>135.4161392378225</v>
       </c>
       <c r="P28">
-        <v>469.9712492486435</v>
+        <v>480.1117663886434</v>
       </c>
       <c r="Q28">
-        <v>563.9712492486435</v>
+        <v>574.1117663886434</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.09266343861060333</v>
+        <v>0.09001876302862935</v>
       </c>
       <c r="T28">
         <v>0.8031925870887539</v>
       </c>
       <c r="U28">
-        <v>0.07773241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.06063128318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>4.875452219444806</v>
+        <v>5.320340122274558</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3587,13 +3587,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.08465066544920125</v>
+        <v>0.08138304825490821</v>
       </c>
       <c r="C29">
-        <v>6465.09282436079</v>
+        <v>6434.230804507488</v>
       </c>
       <c r="D29">
-        <v>6789.521824360791</v>
+        <v>6758.659804507488</v>
       </c>
       <c r="E29">
         <v>-882.8709999999996</v>
@@ -3620,37 +3620,37 @@
         <v>758</v>
       </c>
       <c r="M29">
-        <v>161.4524788109776</v>
+        <v>147.9517903109776</v>
       </c>
       <c r="N29">
-        <v>596.5475211890224</v>
+        <v>610.0482096890224</v>
       </c>
       <c r="O29">
-        <v>131.2404546615849</v>
+        <v>134.2106061315849</v>
       </c>
       <c r="P29">
-        <v>465.3070665274375</v>
+        <v>475.8376035574375</v>
       </c>
       <c r="Q29">
-        <v>559.3070665274374</v>
+        <v>569.8376035574374</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.09353454656238017</v>
+        <v>0.09093356410444448</v>
       </c>
       <c r="T29">
         <v>0.8122953212633958</v>
       </c>
       <c r="U29">
-        <v>0.07773241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.06063128318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>4.694879915020923</v>
+        <v>5.123290488116241</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.08496625269969468</v>
+        <v>0.08170627824176932</v>
       </c>
       <c r="C30">
-        <v>6357.187038593427</v>
+        <v>6327.132366714273</v>
       </c>
       <c r="D30">
-        <v>6758.543038593428</v>
+        <v>6728.488366714274</v>
       </c>
       <c r="E30">
         <v>-805.9439999999995</v>
@@ -3702,37 +3702,37 @@
         <v>758</v>
       </c>
       <c r="M30">
-        <v>167.4322002484212</v>
+        <v>153.4314862484212</v>
       </c>
       <c r="N30">
-        <v>590.5677997515788</v>
+        <v>604.5685137515788</v>
       </c>
       <c r="O30">
-        <v>129.9249159453474</v>
+        <v>133.0050730253473</v>
       </c>
       <c r="P30">
-        <v>460.6428838062315</v>
+        <v>471.5634407262315</v>
       </c>
       <c r="Q30">
-        <v>554.6428838062315</v>
+        <v>565.5634407262315</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.09442985195726195</v>
+        <v>0.09187377632125447</v>
       </c>
       <c r="T30">
         <v>0.8216509091651112</v>
       </c>
       <c r="U30">
-        <v>0.07773241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.06063128318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>4.527205632341605</v>
+        <v>4.940315827826375</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.08614139995018812</v>
+        <v>0.08202950822863042</v>
       </c>
       <c r="C31">
-        <v>6167.349529636129</v>
+        <v>6220.302109297334</v>
       </c>
       <c r="D31">
-        <v>6645.632529636129</v>
+        <v>6698.585109297334</v>
       </c>
       <c r="E31">
         <v>-729.0169999999998</v>
@@ -3784,45 +3784,45 @@
         <v>758</v>
       </c>
       <c r="M31">
-        <v>181.8892770858648</v>
+        <v>158.9111821858648</v>
       </c>
       <c r="N31">
-        <v>576.1107229141352</v>
+        <v>599.0888178141352</v>
       </c>
       <c r="O31">
-        <v>126.7443590411097</v>
+        <v>131.7995399191097</v>
       </c>
       <c r="P31">
-        <v>449.3663638730254</v>
+        <v>467.2892778950254</v>
       </c>
       <c r="Q31">
-        <v>543.3663638730254</v>
+        <v>561.2892778950254</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.09535037722242207</v>
+        <v>0.09284047338924221</v>
       </c>
       <c r="T31">
         <v>0.8312700347541988</v>
       </c>
       <c r="U31">
-        <v>0.08153241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.06359528318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Baa2/BBB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y31">
-        <v>4.167370458249551</v>
+        <v>4.769960109625465</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.08648662720068154</v>
+        <v>0.08235273821549152</v>
       </c>
       <c r="C32">
-        <v>6057.965846712463</v>
+        <v>6113.736472474726</v>
       </c>
       <c r="D32">
-        <v>6613.175846712463</v>
+        <v>6668.946472474725</v>
       </c>
       <c r="E32">
         <v>-652.0900000000001</v>
@@ -3866,45 +3866,45 @@
         <v>758</v>
       </c>
       <c r="M32">
-        <v>188.1613211233084</v>
+        <v>164.3908781233084</v>
       </c>
       <c r="N32">
-        <v>569.8386788766916</v>
+        <v>593.6091218766917</v>
       </c>
       <c r="O32">
-        <v>125.3645093528721</v>
+        <v>130.5940068128722</v>
       </c>
       <c r="P32">
-        <v>444.4741695238195</v>
+        <v>463.0151150638195</v>
       </c>
       <c r="Q32">
-        <v>538.4741695238195</v>
+        <v>557.0151150638195</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.0962972032094439</v>
+        <v>0.09383479037345818</v>
       </c>
       <c r="T32">
         <v>0.8411639925029746</v>
       </c>
       <c r="U32">
-        <v>0.08153241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.06359528318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Baa2/BBB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y32">
-        <v>4.028458109641234</v>
+        <v>4.610961439304619</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.08828265445117497</v>
+        <v>0.08359480820235266</v>
       </c>
       <c r="C33">
-        <v>5817.172827691299</v>
+        <v>5925.317183068936</v>
       </c>
       <c r="D33">
-        <v>6449.3098276913</v>
+        <v>6557.454183068936</v>
       </c>
       <c r="E33">
         <v>-575.163</v>
@@ -3948,45 +3948,45 @@
         <v>758</v>
       </c>
       <c r="M33">
-        <v>208.741787160752</v>
+        <v>178.932574660752</v>
       </c>
       <c r="N33">
-        <v>549.258212839248</v>
+        <v>579.067425339248</v>
       </c>
       <c r="O33">
-        <v>120.8368068246346</v>
+        <v>127.3948335746345</v>
       </c>
       <c r="P33">
-        <v>428.4214060146135</v>
+        <v>451.6725917646134</v>
       </c>
       <c r="Q33">
-        <v>522.4214060146135</v>
+        <v>545.6725917646133</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.09727147342797363</v>
+        <v>0.09485792813982534</v>
       </c>
       <c r="T33">
         <v>0.851344731635773</v>
       </c>
       <c r="U33">
-        <v>0.08753241433363596</v>
+        <v>0.07503241433363596</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.06827528318023604</v>
+        <v>0.05852528318023605</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Ba1/BB+</t>
+          <t>Baa2/BBB</t>
         </is>
       </c>
       <c r="Y33">
-        <v>3.631280589814364</v>
+        <v>4.236232566580643</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3997,13 +3997,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.08867468170166841</v>
+        <v>0.08394767818921377</v>
       </c>
       <c r="C34">
-        <v>5705.551951295649</v>
+        <v>5817.392182494066</v>
       </c>
       <c r="D34">
-        <v>6414.615951295649</v>
+        <v>6526.456182494067</v>
       </c>
       <c r="E34">
         <v>-498.2359999999999</v>
@@ -4030,45 +4030,45 @@
         <v>758</v>
       </c>
       <c r="M34">
-        <v>215.4753931981956</v>
+        <v>184.7045931981957</v>
       </c>
       <c r="N34">
-        <v>542.5246068018043</v>
+        <v>573.2954068018043</v>
       </c>
       <c r="O34">
-        <v>119.3554134963969</v>
+        <v>126.124989496397</v>
       </c>
       <c r="P34">
-        <v>423.1691933054074</v>
+        <v>447.1704173054074</v>
       </c>
       <c r="Q34">
-        <v>517.1691933054074</v>
+        <v>541.1704173054075</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.09827439865293069</v>
+        <v>0.09591115819343858</v>
       </c>
       <c r="T34">
         <v>0.8618249042724772</v>
       </c>
       <c r="U34">
-        <v>0.08753241433363596</v>
+        <v>0.07503241433363596</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.06827528318023604</v>
+        <v>0.05852528318023605</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Ba1/BB+</t>
+          <t>Baa2/BBB</t>
         </is>
       </c>
       <c r="Y34">
-        <v>3.517803071382665</v>
+        <v>4.103850298874997</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4079,13 +4079,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.09025074895216181</v>
+        <v>0.08584494817607487</v>
       </c>
       <c r="C35">
-        <v>5492.832279393506</v>
+        <v>5578.698145861852</v>
       </c>
       <c r="D35">
-        <v>6278.823279393506</v>
+        <v>6364.689145861852</v>
       </c>
       <c r="E35">
         <v>-421.3089999999997</v>
@@ -4112,45 +4112,45 @@
         <v>758</v>
       </c>
       <c r="M35">
-        <v>233.8865178356392</v>
+        <v>205.7081577356392</v>
       </c>
       <c r="N35">
-        <v>524.1134821643608</v>
+        <v>552.2918422643608</v>
       </c>
       <c r="O35">
-        <v>115.3049660761594</v>
+        <v>121.5042052981594</v>
       </c>
       <c r="P35">
-        <v>408.8085160882014</v>
+        <v>430.7876369662014</v>
       </c>
       <c r="Q35">
-        <v>502.8085160882014</v>
+        <v>524.7876369662014</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.09930726194430436</v>
+        <v>0.09699582795014475</v>
       </c>
       <c r="T35">
         <v>0.8726179178834111</v>
       </c>
       <c r="U35">
-        <v>0.09213241433363595</v>
+        <v>0.08103241433363595</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.07186328318023605</v>
+        <v>0.06320528318023605</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Ba2/BB</t>
+          <t>Ba1/BB+</t>
         </is>
       </c>
       <c r="Y35">
-        <v>3.240887961454344</v>
+        <v>3.684831988890421</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4161,13 +4161,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.09067865620265525</v>
+        <v>0.08624461816293598</v>
       </c>
       <c r="C36">
-        <v>5380.023839446883</v>
+        <v>5468.711325850594</v>
       </c>
       <c r="D36">
-        <v>6242.941839446883</v>
+        <v>6331.629325850595</v>
       </c>
       <c r="E36">
         <v>-344.3819999999996</v>
@@ -4194,45 +4194,45 @@
         <v>758</v>
       </c>
       <c r="M36">
-        <v>240.9739880730829</v>
+        <v>211.9417382730829</v>
       </c>
       <c r="N36">
-        <v>517.0260119269171</v>
+        <v>546.0582617269172</v>
       </c>
       <c r="O36">
-        <v>113.7457226239218</v>
+        <v>120.1328175799218</v>
       </c>
       <c r="P36">
-        <v>403.2802893029954</v>
+        <v>425.9254441469954</v>
       </c>
       <c r="Q36">
-        <v>497.2802893029954</v>
+        <v>519.9254441469955</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1003714241232954</v>
+        <v>0.09811336648735718</v>
       </c>
       <c r="T36">
         <v>0.8837379925128585</v>
       </c>
       <c r="U36">
-        <v>0.09213241433363595</v>
+        <v>0.08103241433363595</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.07186328318023605</v>
+        <v>0.06320528318023605</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Ba2/BB</t>
+          <t>Ba1/BB+</t>
         </is>
       </c>
       <c r="Y36">
-        <v>3.145567727293922</v>
+        <v>3.576454577452467</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4243,13 +4243,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.09110656345314866</v>
+        <v>0.08790008814979709</v>
       </c>
       <c r="C37">
-        <v>5267.623170818119</v>
+        <v>5258.427957383182</v>
       </c>
       <c r="D37">
-        <v>6207.46817081812</v>
+        <v>6198.272957383183</v>
       </c>
       <c r="E37">
         <v>-267.4549999999995</v>
@@ -4276,37 +4276,37 @@
         <v>758</v>
       </c>
       <c r="M37">
-        <v>248.0614583105265</v>
+        <v>230.5605658105265</v>
       </c>
       <c r="N37">
-        <v>509.9385416894735</v>
+        <v>527.4394341894734</v>
       </c>
       <c r="O37">
-        <v>112.1864791716842</v>
+        <v>116.0366755216842</v>
       </c>
       <c r="P37">
-        <v>397.7520625177893</v>
+        <v>411.4027586677893</v>
       </c>
       <c r="Q37">
-        <v>491.7520625177893</v>
+        <v>505.4027586677893</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1014683297539478</v>
+        <v>0.0992652908257146</v>
       </c>
       <c r="T37">
         <v>0.8952002232847504</v>
       </c>
       <c r="U37">
-        <v>0.09213241433363595</v>
+        <v>0.08563241433363596</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.07186328318023605</v>
+        <v>0.06679328318023604</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>3.055694363656953</v>
+        <v>3.287639398937459</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4325,13 +4325,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.09512871070364211</v>
+        <v>0.08833563813665821</v>
       </c>
       <c r="C38">
-        <v>4875.963322971199</v>
+        <v>5147.34348401045</v>
       </c>
       <c r="D38">
-        <v>5892.7353229712</v>
+        <v>6164.115484010451</v>
       </c>
       <c r="E38">
         <v>-190.5279999999998</v>
@@ -4358,45 +4358,45 @@
         <v>758</v>
       </c>
       <c r="M38">
-        <v>290.5968901479701</v>
+        <v>237.1480105479701</v>
       </c>
       <c r="N38">
-        <v>467.4031098520299</v>
+        <v>520.8519894520299</v>
       </c>
       <c r="O38">
-        <v>102.8286841674466</v>
+        <v>114.5874376794466</v>
       </c>
       <c r="P38">
-        <v>364.5744256845833</v>
+        <v>406.2645517725833</v>
       </c>
       <c r="Q38">
-        <v>458.5744256845833</v>
+        <v>500.2645517725833</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.102599513685558</v>
+        <v>0.1004532127996457</v>
       </c>
       <c r="T38">
         <v>0.9070206487682637</v>
       </c>
       <c r="U38">
-        <v>0.104932414333636</v>
+        <v>0.08563241433363596</v>
       </c>
       <c r="V38">
         <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.08184728318023604</v>
+        <v>0.06679328318023604</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>B1/B+</t>
+          <t>Ba2/BB</t>
         </is>
       </c>
       <c r="Y38">
-        <v>2.608424335215807</v>
+        <v>3.196316082300308</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4407,13 +4407,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.09565645795413553</v>
+        <v>0.08877118812351932</v>
       </c>
       <c r="C39">
-        <v>4760.093012132524</v>
+        <v>5036.633417700956</v>
       </c>
       <c r="D39">
-        <v>5853.792012132524</v>
+        <v>6130.332417700956</v>
       </c>
       <c r="E39">
         <v>-113.6009999999997</v>
@@ -4440,45 +4440,45 @@
         <v>758</v>
       </c>
       <c r="M39">
-        <v>298.6690259854137</v>
+        <v>243.7354552854137</v>
       </c>
       <c r="N39">
-        <v>459.3309740145863</v>
+        <v>514.2645447145862</v>
       </c>
       <c r="O39">
-        <v>101.052814283209</v>
+        <v>113.138199837209</v>
       </c>
       <c r="P39">
-        <v>358.2781597313773</v>
+        <v>401.1263448773773</v>
       </c>
       <c r="Q39">
-        <v>452.2781597313773</v>
+        <v>495.1263448773773</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1037666082181717</v>
+        <v>0.101678846582273</v>
       </c>
       <c r="T39">
         <v>0.9192163258544284</v>
       </c>
       <c r="U39">
-        <v>0.104932414333636</v>
+        <v>0.08563241433363596</v>
       </c>
       <c r="V39">
         <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.08184728318023604</v>
+        <v>0.06679328318023604</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>B1/B+</t>
+          <t>Ba2/BB</t>
         </is>
       </c>
       <c r="Y39">
-        <v>2.537926380209975</v>
+        <v>3.109929161157056</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4489,13 +4489,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.09858504520462896</v>
+        <v>0.08920673811038043</v>
       </c>
       <c r="C40">
-        <v>4476.08343325132</v>
+        <v>4926.291636080217</v>
       </c>
       <c r="D40">
-        <v>5646.709433251321</v>
+        <v>6096.917636080218</v>
       </c>
       <c r="E40">
         <v>-36.67399999999998</v>
@@ -4522,45 +4522,45 @@
         <v>758</v>
       </c>
       <c r="M40">
-        <v>330.4192924228573</v>
+        <v>250.3229000228573</v>
       </c>
       <c r="N40">
-        <v>427.5807075771427</v>
+        <v>507.6770999771427</v>
       </c>
       <c r="O40">
-        <v>94.06775566697141</v>
+        <v>111.6889619949714</v>
       </c>
       <c r="P40">
-        <v>333.5129519101713</v>
+        <v>395.9881379821713</v>
       </c>
       <c r="Q40">
-        <v>427.5129519101713</v>
+        <v>489.9881379821713</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1049713509615149</v>
+        <v>0.1029440169385334</v>
       </c>
       <c r="T40">
         <v>0.9318054118788563</v>
       </c>
       <c r="U40">
-        <v>0.1130324143336359</v>
+        <v>0.08563241433363596</v>
       </c>
       <c r="V40">
         <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.08816528318023605</v>
+        <v>0.06679328318023604</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>Ba2/BB</t>
         </is>
       </c>
       <c r="Y40">
-        <v>2.294054909572115</v>
+        <v>3.028088920073976</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4571,13 +4571,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.09917597245512239</v>
+        <v>0.09353604809724156</v>
       </c>
       <c r="C41">
-        <v>4359.135377046878</v>
+        <v>4536.013677586996</v>
       </c>
       <c r="D41">
-        <v>5606.688377046878</v>
+        <v>5783.566677586996</v>
       </c>
       <c r="E41">
         <v>40.25300000000016</v>
@@ -4604,45 +4604,45 @@
         <v>758</v>
       </c>
       <c r="M41">
-        <v>339.1145369603009</v>
+        <v>295.3123031603009</v>
       </c>
       <c r="N41">
-        <v>418.8854630396991</v>
+        <v>462.6876968396991</v>
       </c>
       <c r="O41">
-        <v>92.1548018687338</v>
+        <v>101.7912933047338</v>
       </c>
       <c r="P41">
-        <v>326.7306611709653</v>
+        <v>360.8964035349653</v>
       </c>
       <c r="Q41">
-        <v>420.7306611709653</v>
+        <v>454.8964035349653</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.106215593466935</v>
+        <v>0.1042506682900811</v>
       </c>
       <c r="T41">
         <v>0.9448072548221181</v>
       </c>
       <c r="U41">
-        <v>0.1130324143336359</v>
+        <v>0.09843241433363595</v>
       </c>
       <c r="V41">
         <v>0.22</v>
       </c>
       <c r="W41">
-        <v>0.08816528318023605</v>
+        <v>0.07677728318023604</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>B1/B+</t>
         </is>
       </c>
       <c r="Y41">
-        <v>2.235232988813855</v>
+        <v>2.566774197648459</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4653,13 +4653,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.09976689970561581</v>
+        <v>0.09407143808410268</v>
       </c>
       <c r="C42">
-        <v>4242.750626925848</v>
+        <v>4422.559472699288</v>
       </c>
       <c r="D42">
-        <v>5567.230626925849</v>
+        <v>5747.039472699287</v>
       </c>
       <c r="E42">
         <v>117.1800000000003</v>
@@ -4686,45 +4686,45 @@
         <v>758</v>
       </c>
       <c r="M42">
-        <v>347.8097814977446</v>
+        <v>302.8844134977446</v>
       </c>
       <c r="N42">
-        <v>410.1902185022554</v>
+        <v>455.1155865022554</v>
       </c>
       <c r="O42">
-        <v>90.2418480704962</v>
+        <v>100.1254290304962</v>
       </c>
       <c r="P42">
-        <v>319.9483704317593</v>
+        <v>354.9901574717592</v>
       </c>
       <c r="Q42">
-        <v>413.9483704317593</v>
+        <v>448.9901574717592</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1075013107225357</v>
+        <v>0.1056008746866804</v>
       </c>
       <c r="T42">
         <v>0.9582424925301553</v>
       </c>
       <c r="U42">
-        <v>0.1130324143336359</v>
+        <v>0.09843241433363595</v>
       </c>
       <c r="V42">
         <v>0.22</v>
       </c>
       <c r="W42">
-        <v>0.08816528318023605</v>
+        <v>0.07677728318023604</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>B1/B+</t>
         </is>
       </c>
       <c r="Y42">
-        <v>2.179352164093509</v>
+        <v>2.502604842707248</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4735,13 +4735,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1003578269561092</v>
+        <v>0.09719720807096377</v>
       </c>
       <c r="C43">
-        <v>4126.917372996927</v>
+        <v>4141.258250908689</v>
       </c>
       <c r="D43">
-        <v>5528.324372996927</v>
+        <v>5542.66525090869</v>
       </c>
       <c r="E43">
         <v>194.1070000000004</v>
@@ -4768,37 +4768,37 @@
         <v>758</v>
       </c>
       <c r="M43">
-        <v>356.5050260351882</v>
+        <v>336.0039805351881</v>
       </c>
       <c r="N43">
-        <v>401.4949739648118</v>
+        <v>421.9960194648119</v>
       </c>
       <c r="O43">
-        <v>88.32889427225861</v>
+        <v>92.83912428225861</v>
       </c>
       <c r="P43">
-        <v>313.1660796925532</v>
+        <v>329.1568951825533</v>
       </c>
       <c r="Q43">
-        <v>407.1660796925532</v>
+        <v>423.1568951825533</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1088306116139194</v>
+        <v>0.106996850791639</v>
       </c>
       <c r="T43">
         <v>0.9721331620249054</v>
       </c>
       <c r="U43">
-        <v>0.1130324143336359</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V43">
         <v>0.22</v>
       </c>
       <c r="W43">
-        <v>0.08816528318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>2.126197233261959</v>
+        <v>2.25592565538258</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4817,13 +4817,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1009487542066027</v>
+        <v>0.09779577805782488</v>
       </c>
       <c r="C44">
-        <v>4011.624133208564</v>
+        <v>4026.841631186445</v>
       </c>
       <c r="D44">
-        <v>5489.958133208565</v>
+        <v>5505.175631186446</v>
       </c>
       <c r="E44">
         <v>271.0340000000001</v>
@@ -4850,37 +4850,37 @@
         <v>758</v>
       </c>
       <c r="M44">
-        <v>365.2002705726318</v>
+        <v>344.1991995726318</v>
       </c>
       <c r="N44">
-        <v>392.7997294273682</v>
+        <v>413.8008004273682</v>
       </c>
       <c r="O44">
-        <v>86.41594047402101</v>
+        <v>91.03617609402102</v>
       </c>
       <c r="P44">
-        <v>306.3837889533472</v>
+        <v>322.7646243333472</v>
       </c>
       <c r="Q44">
-        <v>400.3837889533472</v>
+        <v>416.7646243333472</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.110205750467075</v>
+        <v>0.1084409640036651</v>
       </c>
       <c r="T44">
         <v>0.9865028201229229</v>
       </c>
       <c r="U44">
-        <v>0.1130324143336359</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V44">
         <v>0.22</v>
       </c>
       <c r="W44">
-        <v>0.08816528318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>2.075573489612865</v>
+        <v>2.202213139778233</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4899,13 +4899,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1015396814570961</v>
+        <v>0.09839434804468603</v>
       </c>
       <c r="C45">
-        <v>3896.85974205142</v>
+        <v>3912.928750740081</v>
       </c>
       <c r="D45">
-        <v>5452.120742051421</v>
+        <v>5468.189750740081</v>
       </c>
       <c r="E45">
         <v>347.9610000000002</v>
@@ -4932,37 +4932,37 @@
         <v>758</v>
       </c>
       <c r="M45">
-        <v>373.8955151100754</v>
+        <v>352.3944186100754</v>
       </c>
       <c r="N45">
-        <v>384.1044848899246</v>
+        <v>405.6055813899246</v>
       </c>
       <c r="O45">
-        <v>84.50298667578342</v>
+        <v>89.23322790578342</v>
       </c>
       <c r="P45">
-        <v>299.6014982141412</v>
+        <v>316.3723534841412</v>
       </c>
       <c r="Q45">
-        <v>393.6014982141412</v>
+        <v>410.3723534841412</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1116291398063063</v>
+        <v>0.1099357478547097</v>
       </c>
       <c r="T45">
         <v>1.001376676750696</v>
       </c>
       <c r="U45">
-        <v>0.1130324143336359</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V45">
         <v>0.22</v>
       </c>
       <c r="W45">
-        <v>0.08816528318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="Y45">
-        <v>2.027304338691636</v>
+        <v>2.150998880713623</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4981,13 +4981,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.1058371687075895</v>
+        <v>0.09899291803154711</v>
       </c>
       <c r="C46">
-        <v>3559.702220440831</v>
+        <v>3799.509524385005</v>
       </c>
       <c r="D46">
-        <v>5191.890220440831</v>
+        <v>5431.697524385006</v>
       </c>
       <c r="E46">
         <v>424.8880000000004</v>
@@ -5014,45 +5014,45 @@
         <v>758</v>
       </c>
       <c r="M46">
-        <v>419.146470047519</v>
+        <v>360.589637647519</v>
       </c>
       <c r="N46">
-        <v>338.853529952481</v>
+        <v>397.410362352481</v>
       </c>
       <c r="O46">
-        <v>74.54777658954582</v>
+        <v>87.43027971754582</v>
       </c>
       <c r="P46">
-        <v>264.3057533629351</v>
+        <v>309.9800826349352</v>
       </c>
       <c r="Q46">
-        <v>358.3057533629351</v>
+        <v>403.9800826349352</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1131033644790815</v>
+        <v>0.1114839168432915</v>
       </c>
       <c r="T46">
         <v>1.016781742543746</v>
       </c>
       <c r="U46">
-        <v>0.123832414333636</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V46">
         <v>0.22</v>
       </c>
       <c r="W46">
-        <v>0.09658928318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>B2/B</t>
         </is>
       </c>
       <c r="Y46">
-        <v>1.80843703613695</v>
+        <v>2.102112542515586</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5063,13 +5063,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.106512335958083</v>
+        <v>0.09959148801840823</v>
       </c>
       <c r="C47">
-        <v>3444.132248589476</v>
+        <v>3686.574134367756</v>
       </c>
       <c r="D47">
-        <v>5153.247248589477</v>
+        <v>5395.689134367756</v>
       </c>
       <c r="E47">
         <v>501.8150000000005</v>
@@ -5096,45 +5096,45 @@
         <v>758</v>
       </c>
       <c r="M47">
-        <v>428.6725261849626</v>
+        <v>368.7848566849626</v>
       </c>
       <c r="N47">
-        <v>329.3274738150374</v>
+        <v>389.2151433150374</v>
       </c>
       <c r="O47">
-        <v>72.45204423930822</v>
+        <v>85.62733152930822</v>
       </c>
       <c r="P47">
-        <v>256.8754295757291</v>
+        <v>303.5878117857292</v>
       </c>
       <c r="Q47">
-        <v>350.8754295757291</v>
+        <v>397.5878117857292</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1146311973217759</v>
+        <v>0.1130883828860036</v>
       </c>
       <c r="T47">
         <v>1.032746992547452</v>
       </c>
       <c r="U47">
-        <v>0.123832414333636</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V47">
         <v>0.22</v>
       </c>
       <c r="W47">
-        <v>0.09658928318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>B2/B</t>
         </is>
       </c>
       <c r="Y47">
-        <v>1.768249546445017</v>
+        <v>2.055398930459684</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5145,13 +5145,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.1071875032085764</v>
+        <v>0.1001900580052693</v>
       </c>
       <c r="C48">
-        <v>3329.133262226068</v>
+        <v>3574.113021559973</v>
       </c>
       <c r="D48">
-        <v>5115.175262226068</v>
+        <v>5360.155021559973</v>
       </c>
       <c r="E48">
         <v>578.7420000000002</v>
@@ -5178,45 +5178,45 @@
         <v>758</v>
       </c>
       <c r="M48">
-        <v>438.1985823224063</v>
+        <v>376.9800757224062</v>
       </c>
       <c r="N48">
-        <v>319.8014176775937</v>
+        <v>381.0199242775938</v>
       </c>
       <c r="O48">
-        <v>70.35631188907062</v>
+        <v>83.82438334107064</v>
       </c>
       <c r="P48">
-        <v>249.4451057885231</v>
+        <v>297.1955409365232</v>
       </c>
       <c r="Q48">
-        <v>343.4451057885231</v>
+        <v>391.1955409365232</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1162156165660515</v>
+        <v>0.1147522735969644</v>
       </c>
       <c r="T48">
         <v>1.049303548106851</v>
       </c>
       <c r="U48">
-        <v>0.123832414333636</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V48">
         <v>0.22</v>
       </c>
       <c r="W48">
-        <v>0.09658928318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>B2/B</t>
         </is>
       </c>
       <c r="Y48">
-        <v>1.729809338913604</v>
+        <v>2.010716345014909</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5227,13 +5227,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.1078626704590698</v>
+        <v>0.1047479079921304</v>
       </c>
       <c r="C49">
-        <v>3214.692698906995</v>
+        <v>3241.226692450266</v>
       </c>
       <c r="D49">
-        <v>5077.661698906996</v>
+        <v>5104.195692450267</v>
       </c>
       <c r="E49">
         <v>655.6690000000003</v>
@@ -5260,37 +5260,37 @@
         <v>758</v>
       </c>
       <c r="M49">
-        <v>447.7246384598499</v>
+        <v>424.2234399598498</v>
       </c>
       <c r="N49">
-        <v>310.2753615401501</v>
+        <v>333.7765600401502</v>
       </c>
       <c r="O49">
-        <v>68.26057953883303</v>
+        <v>73.43084320883304</v>
       </c>
       <c r="P49">
-        <v>242.0147820013171</v>
+        <v>260.3457168313171</v>
       </c>
       <c r="Q49">
-        <v>336.0147820013171</v>
+        <v>354.3457168313171</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1178598252157714</v>
+        <v>0.1164789526366406</v>
       </c>
       <c r="T49">
         <v>1.066484879347737</v>
       </c>
       <c r="U49">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V49">
         <v>0.22</v>
       </c>
       <c r="W49">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>1.693004884894166</v>
+        <v>1.78679424237317</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5309,13 +5309,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.1085378377095632</v>
+        <v>0.1054307179789916</v>
       </c>
       <c r="C50">
-        <v>3100.798362026407</v>
+        <v>3128.044935729734</v>
       </c>
       <c r="D50">
-        <v>5040.694362026406</v>
+        <v>5067.940935729735</v>
       </c>
       <c r="E50">
         <v>732.596</v>
@@ -5342,37 +5342,37 @@
         <v>758</v>
       </c>
       <c r="M50">
-        <v>457.2506945972934</v>
+        <v>433.2494705972934</v>
       </c>
       <c r="N50">
-        <v>300.7493054027066</v>
+        <v>324.7505294027066</v>
       </c>
       <c r="O50">
-        <v>66.16484718859545</v>
+        <v>71.44511646859546</v>
       </c>
       <c r="P50">
-        <v>234.5844582141111</v>
+        <v>253.3054129341111</v>
       </c>
       <c r="Q50">
-        <v>328.5844582141111</v>
+        <v>347.3054129341111</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1195672726597114</v>
+        <v>0.118272042408612</v>
       </c>
       <c r="T50">
         <v>1.084327031020965</v>
       </c>
       <c r="U50">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V50">
         <v>0.22</v>
       </c>
       <c r="W50">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>1.657733949792204</v>
+        <v>1.749569362323729</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5391,13 +5391,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.1092130049600567</v>
+        <v>0.1061135279658527</v>
       </c>
       <c r="C51">
-        <v>2987.43840759525</v>
+        <v>3015.374576754539</v>
       </c>
       <c r="D51">
-        <v>5004.261407595251</v>
+        <v>5032.19757675454</v>
       </c>
       <c r="E51">
         <v>809.5230000000001</v>
@@ -5424,37 +5424,37 @@
         <v>758</v>
       </c>
       <c r="M51">
-        <v>466.776750734737</v>
+        <v>442.275501234737</v>
       </c>
       <c r="N51">
-        <v>291.223249265263</v>
+        <v>315.724498765263</v>
       </c>
       <c r="O51">
-        <v>64.06911483835785</v>
+        <v>69.45938972835786</v>
       </c>
       <c r="P51">
-        <v>227.1541344269051</v>
+        <v>246.2651090369051</v>
       </c>
       <c r="Q51">
-        <v>321.1541344269051</v>
+        <v>340.2651090369051</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1213416788269431</v>
+        <v>0.1201354494265432</v>
       </c>
       <c r="T51">
         <v>1.102868874916672</v>
       </c>
       <c r="U51">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V51">
         <v>0.22</v>
       </c>
       <c r="W51">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="Y51">
-        <v>1.623902644694404</v>
+        <v>1.713863865133449</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5473,13 +5473,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.1098881722105501</v>
+        <v>0.1067963379527138</v>
       </c>
       <c r="C52">
-        <v>2874.601331589571</v>
+        <v>2903.204870890728</v>
       </c>
       <c r="D52">
-        <v>4968.351331589571</v>
+        <v>4996.954870890728</v>
       </c>
       <c r="E52">
         <v>886.4500000000003</v>
@@ -5506,37 +5506,37 @@
         <v>758</v>
       </c>
       <c r="M52">
-        <v>476.3028068721807</v>
+        <v>451.3015318721806</v>
       </c>
       <c r="N52">
-        <v>281.6971931278193</v>
+        <v>306.6984681278194</v>
       </c>
       <c r="O52">
-        <v>61.97338248812024</v>
+        <v>67.47366298812025</v>
       </c>
       <c r="P52">
-        <v>219.723810639699</v>
+        <v>239.2248051396991</v>
       </c>
       <c r="Q52">
-        <v>313.723810639699</v>
+        <v>333.2248051396991</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1231870612408641</v>
+        <v>0.1220733927251915</v>
       </c>
       <c r="T52">
         <v>1.122152392568208</v>
       </c>
       <c r="U52">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V52">
         <v>0.22</v>
       </c>
       <c r="W52">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         </is>
       </c>
       <c r="Y52">
-        <v>1.591424591800516</v>
+        <v>1.67958658783078</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5555,13 +5555,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.1105633394610435</v>
+        <v>0.1074791479395749</v>
       </c>
       <c r="C53">
-        <v>2762.275957839627</v>
+        <v>2791.525372408683</v>
       </c>
       <c r="D53">
-        <v>4932.952957839628</v>
+        <v>4962.202372408684</v>
       </c>
       <c r="E53">
         <v>963.3770000000004</v>
@@ -5588,37 +5588,37 @@
         <v>758</v>
       </c>
       <c r="M53">
-        <v>485.8288630096243</v>
+        <v>460.3275625096243</v>
       </c>
       <c r="N53">
-        <v>272.1711369903757</v>
+        <v>297.6724374903757</v>
       </c>
       <c r="O53">
-        <v>59.87765013788265</v>
+        <v>65.48793624788266</v>
       </c>
       <c r="P53">
-        <v>212.293486852493</v>
+        <v>232.1845012424931</v>
       </c>
       <c r="Q53">
-        <v>306.293486852493</v>
+        <v>326.1845012424931</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1251077653859656</v>
+        <v>0.1240904357503154</v>
       </c>
       <c r="T53">
         <v>1.142222992572868</v>
       </c>
       <c r="U53">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V53">
         <v>0.22</v>
       </c>
       <c r="W53">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>1.560220188039721</v>
+        <v>1.646653517481157</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5637,13 +5637,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.111238506711537</v>
+        <v>0.108161957926436</v>
       </c>
       <c r="C54">
-        <v>2650.451426433098</v>
+        <v>2680.325924160917</v>
       </c>
       <c r="D54">
-        <v>4898.055426433099</v>
+        <v>4927.929924160918</v>
       </c>
       <c r="E54">
         <v>1040.304000000001</v>
@@ -5670,37 +5670,37 @@
         <v>758</v>
       </c>
       <c r="M54">
-        <v>495.354919147068</v>
+        <v>469.353593147068</v>
       </c>
       <c r="N54">
-        <v>262.645080852932</v>
+        <v>288.646406852932</v>
       </c>
       <c r="O54">
-        <v>57.78191778764505</v>
+        <v>63.50220950764505</v>
       </c>
       <c r="P54">
-        <v>204.863163065287</v>
+        <v>225.144197345287</v>
       </c>
       <c r="Q54">
-        <v>298.863163065287</v>
+        <v>319.144197345287</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1271084988704463</v>
+        <v>0.1261915222348193</v>
       </c>
       <c r="T54">
         <v>1.163129867577721</v>
       </c>
       <c r="U54">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V54">
         <v>0.22</v>
       </c>
       <c r="W54">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>1.530215953654342</v>
+        <v>1.614987103683442</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5719,13 +5719,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1119136739620304</v>
+        <v>0.1088447679132971</v>
       </c>
       <c r="C55">
-        <v>2539.117182607046</v>
+        <v>2569.596647684674</v>
       </c>
       <c r="D55">
-        <v>4863.648182607048</v>
+        <v>4894.127647684675</v>
       </c>
       <c r="E55">
         <v>1117.231000000001</v>
@@ -5752,37 +5752,37 @@
         <v>758</v>
       </c>
       <c r="M55">
-        <v>504.8809752845116</v>
+        <v>478.3796237845116</v>
       </c>
       <c r="N55">
-        <v>253.1190247154884</v>
+        <v>279.6203762154884</v>
       </c>
       <c r="O55">
-        <v>55.68618543740745</v>
+        <v>61.51648276740745</v>
       </c>
       <c r="P55">
-        <v>197.432839278081</v>
+        <v>218.103893448081</v>
       </c>
       <c r="Q55">
-        <v>291.432839278081</v>
+        <v>312.103893448081</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1291943699500112</v>
+        <v>0.1283820166548341</v>
       </c>
       <c r="T55">
         <v>1.184926396838101</v>
       </c>
       <c r="U55">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V55">
         <v>0.22</v>
       </c>
       <c r="W55">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>1.501343954528788</v>
+        <v>1.584515648896962</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5801,13 +5801,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1295632012125238</v>
+        <v>0.1095275779001582</v>
       </c>
       <c r="C56">
-        <v>1707.630797666972</v>
+        <v>2459.327933709093</v>
       </c>
       <c r="D56">
-        <v>4109.088797666973</v>
+        <v>4860.785933709095</v>
       </c>
       <c r="E56">
         <v>1194.158000000001</v>
@@ -5834,45 +5834,45 @@
         <v>758</v>
       </c>
       <c r="M56">
-        <v>681.8155688219553</v>
+        <v>487.4056544219552</v>
       </c>
       <c r="N56">
-        <v>76.18443117804475</v>
+        <v>270.5943455780448</v>
       </c>
       <c r="O56">
-        <v>16.76057485916984</v>
+        <v>59.53075602716986</v>
       </c>
       <c r="P56">
-        <v>59.4238563188749</v>
+        <v>211.063589550875</v>
       </c>
       <c r="Q56">
-        <v>153.4238563188749</v>
+        <v>305.063589550875</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.1313709310765138</v>
+        <v>0.1306677499626756</v>
       </c>
       <c r="T56">
         <v>1.207670601283714</v>
       </c>
       <c r="U56">
-        <v>0.164132414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V56">
         <v>0.22</v>
       </c>
       <c r="W56">
-        <v>0.1280232831802361</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>B3/B-</t>
         </is>
       </c>
       <c r="Y56">
-        <v>1.111737593950336</v>
+        <v>1.555172766509981</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5883,13 +5883,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1305527084630172</v>
+        <v>0.1102103878870193</v>
       </c>
       <c r="C57">
-        <v>1595.271316702715</v>
+        <v>2349.51043304779</v>
       </c>
       <c r="D57">
-        <v>4073.656316702716</v>
+        <v>4827.89543304779</v>
       </c>
       <c r="E57">
         <v>1271.085</v>
@@ -5916,45 +5916,45 @@
         <v>758</v>
       </c>
       <c r="M57">
-        <v>694.4417830593989</v>
+        <v>496.4316850593988</v>
       </c>
       <c r="N57">
-        <v>63.55821694060114</v>
+        <v>261.5683149406012</v>
       </c>
       <c r="O57">
-        <v>13.98280772693225</v>
+        <v>57.54502928693227</v>
       </c>
       <c r="P57">
-        <v>49.57540921366889</v>
+        <v>204.0232856536689</v>
       </c>
       <c r="Q57">
-        <v>143.5754092136689</v>
+        <v>298.0232856536689</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1336442282530831</v>
+        <v>0.1330550714175323</v>
       </c>
       <c r="T57">
         <v>1.231425659260243</v>
       </c>
       <c r="U57">
-        <v>0.164132414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V57">
         <v>0.22</v>
       </c>
       <c r="W57">
-        <v>0.1280232831802361</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>B3/B-</t>
         </is>
       </c>
       <c r="Y57">
-        <v>1.091524183151239</v>
+        <v>1.526896898027982</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5965,13 +5965,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1315422157135107</v>
+        <v>0.1284962378738805</v>
       </c>
       <c r="C58">
-        <v>1483.51767685876</v>
+        <v>1531.937811879999</v>
       </c>
       <c r="D58">
-        <v>4038.829676858761</v>
+        <v>4087.24981188</v>
       </c>
       <c r="E58">
         <v>1348.012000000001</v>
@@ -5998,37 +5998,37 @@
         <v>758</v>
       </c>
       <c r="M58">
-        <v>707.0679972968426</v>
+        <v>679.0665692968425</v>
       </c>
       <c r="N58">
-        <v>50.93200270315742</v>
+        <v>78.93343070315746</v>
       </c>
       <c r="O58">
-        <v>11.20504059469463</v>
+        <v>17.36535475469464</v>
       </c>
       <c r="P58">
-        <v>39.72696210846279</v>
+        <v>61.56807594846282</v>
       </c>
       <c r="Q58">
-        <v>133.7269621084628</v>
+        <v>155.5680759484628</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1360208571194965</v>
+        <v>0.1355509074839734</v>
       </c>
       <c r="T58">
         <v>1.256260492599342</v>
       </c>
       <c r="U58">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V58">
         <v>0.22</v>
       </c>
       <c r="W58">
-        <v>0.1280232831802361</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>1.072032679880681</v>
+        <v>1.116238133744224</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6047,13 +6047,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1325317229640041</v>
+        <v>0.1294933878607416</v>
       </c>
       <c r="C59">
-        <v>1372.354471418769</v>
+        <v>1421.102115496998</v>
       </c>
       <c r="D59">
-        <v>4004.59347141877</v>
+        <v>4053.341115496999</v>
       </c>
       <c r="E59">
         <v>1424.939000000001</v>
@@ -6080,37 +6080,37 @@
         <v>758</v>
       </c>
       <c r="M59">
-        <v>719.6942115342861</v>
+        <v>691.192758034286</v>
       </c>
       <c r="N59">
-        <v>38.30578846571393</v>
+        <v>66.80724196571396</v>
       </c>
       <c r="O59">
-        <v>8.427273462457064</v>
+        <v>14.69759323245707</v>
       </c>
       <c r="P59">
-        <v>29.87851500325687</v>
+        <v>52.10964873325689</v>
       </c>
       <c r="Q59">
-        <v>123.8785150032569</v>
+        <v>146.1096487332569</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.1385080268634175</v>
+        <v>0.1381628289488536</v>
       </c>
       <c r="T59">
         <v>1.282250434465841</v>
       </c>
       <c r="U59">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V59">
         <v>0.22</v>
       </c>
       <c r="W59">
-        <v>0.1280232831802361</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>1.053225089005581</v>
+        <v>1.096655008590816</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6129,13 +6129,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1335212302144975</v>
+        <v>0.1304905378476027</v>
       </c>
       <c r="C60">
-        <v>1261.766811671777</v>
+        <v>1310.824417399232</v>
       </c>
       <c r="D60">
-        <v>3970.932811671778</v>
+        <v>4019.990417399232</v>
       </c>
       <c r="E60">
         <v>1501.866</v>
@@ -6162,37 +6162,37 @@
         <v>758</v>
       </c>
       <c r="M60">
-        <v>732.3204257717297</v>
+        <v>703.3189467717297</v>
       </c>
       <c r="N60">
-        <v>25.67957422827033</v>
+        <v>54.68105322827034</v>
       </c>
       <c r="O60">
-        <v>5.649506330219472</v>
+        <v>12.02983171021948</v>
       </c>
       <c r="P60">
-        <v>20.03006789805085</v>
+        <v>42.65122151805087</v>
       </c>
       <c r="Q60">
-        <v>114.0300678980508</v>
+        <v>136.6512215180509</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.141113633261811</v>
+        <v>0.1408991276263471</v>
       </c>
       <c r="T60">
         <v>1.309477992611697</v>
       </c>
       <c r="U60">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V60">
         <v>0.22</v>
       </c>
       <c r="W60">
-        <v>0.1280232831802361</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>1.035066035746864</v>
+        <v>1.077747163615113</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6211,13 +6211,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.1345107374649909</v>
+        <v>0.1314876878344638</v>
       </c>
       <c r="C61">
-        <v>1151.740305323162</v>
+        <v>1201.091056439835</v>
       </c>
       <c r="D61">
-        <v>3937.833305323162</v>
+        <v>3987.184056439835</v>
       </c>
       <c r="E61">
         <v>1578.793</v>
@@ -6244,37 +6244,37 @@
         <v>758</v>
       </c>
       <c r="M61">
-        <v>744.9466400091732</v>
+        <v>715.4451355091732</v>
       </c>
       <c r="N61">
-        <v>13.05335999082683</v>
+        <v>42.55486449082684</v>
       </c>
       <c r="O61">
-        <v>2.871739197981904</v>
+        <v>9.362070187981907</v>
       </c>
       <c r="P61">
-        <v>10.18162079284493</v>
+        <v>33.19279430284494</v>
       </c>
       <c r="Q61">
-        <v>104.1816207928449</v>
+        <v>127.1927943028449</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.1438463424113455</v>
+        <v>0.1437689042881086</v>
       </c>
       <c r="T61">
         <v>1.338033724325643</v>
       </c>
       <c r="U61">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V61">
         <v>0.22</v>
       </c>
       <c r="W61">
-        <v>0.1280232831802361</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>1.017522543615562</v>
+        <v>1.059480262536891</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6293,13 +6293,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.1355002447154844</v>
+        <v>0.1324848378213249</v>
       </c>
       <c r="C62">
-        <v>1042.261035976398</v>
+        <v>1091.888813806008</v>
       </c>
       <c r="D62">
-        <v>3905.281035976398</v>
+        <v>3954.908813806008</v>
       </c>
       <c r="E62">
         <v>1655.72</v>
@@ -6326,37 +6326,37 @@
         <v>758</v>
       </c>
       <c r="M62">
-        <v>757.5728542466168</v>
+        <v>727.5713242466168</v>
       </c>
       <c r="N62">
-        <v>0.427145753383229</v>
+        <v>30.42867575338323</v>
       </c>
       <c r="O62">
-        <v>0.09397206574431038</v>
+        <v>6.694308665744311</v>
       </c>
       <c r="P62">
-        <v>0.3331736876389186</v>
+        <v>23.73436708763892</v>
       </c>
       <c r="Q62">
-        <v>94.33317368763892</v>
+        <v>117.7343670876389</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.1467156870183568</v>
+        <v>0.1467821697829582</v>
       </c>
       <c r="T62">
         <v>1.368017242625287</v>
       </c>
       <c r="U62">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V62">
         <v>0.22</v>
       </c>
       <c r="W62">
-        <v>0.1280232831802361</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>1.000563834555302</v>
+        <v>1.041822258161276</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6375,13 +6375,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.1369668629971301</v>
+        <v>0.133481987808186</v>
       </c>
       <c r="C63">
-        <v>918.0640446549014</v>
+        <v>983.2048952598579</v>
       </c>
       <c r="D63">
-        <v>3858.011044654902</v>
+        <v>3923.151895259858</v>
       </c>
       <c r="E63">
         <v>1732.647</v>
@@ -6408,37 +6408,37 @@
         <v>758</v>
       </c>
       <c r="M63">
-        <v>770.1990684840605</v>
+        <v>739.6975129840605</v>
       </c>
       <c r="N63">
-        <v>-12.19906848406049</v>
+        <v>18.3024870159395</v>
       </c>
       <c r="O63">
-        <v>-2.683795066493308</v>
+        <v>4.026547143506691</v>
       </c>
       <c r="P63">
-        <v>-9.515273417567183</v>
+        <v>14.27593987243282</v>
       </c>
       <c r="Q63">
-        <v>84.48472658243281</v>
+        <v>108.2759398724328</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.1500609863876817</v>
+        <v>0.1499499617134411</v>
       </c>
       <c r="T63">
-        <v>1.402974300279793</v>
+        <v>1.39953837724799</v>
       </c>
       <c r="U63">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V63">
-        <v>0.2165154527234424</v>
+        <v>0.22</v>
       </c>
       <c r="W63">
-        <v>0.1285952103375971</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>0.9841611487429202</v>
+        <v>1.024743204748796</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6457,13 +6457,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.1384501871404665</v>
+        <v>0.1344791377950471</v>
       </c>
       <c r="C64">
-        <v>794.4784861869803</v>
+        <v>875.0269142280395</v>
       </c>
       <c r="D64">
-        <v>3811.352486186981</v>
+        <v>3891.90091422804</v>
       </c>
       <c r="E64">
         <v>1809.574</v>
@@ -6490,37 +6490,37 @@
         <v>758</v>
       </c>
       <c r="M64">
-        <v>782.8252827215041</v>
+        <v>751.823701721504</v>
       </c>
       <c r="N64">
-        <v>-24.8252827215041</v>
+        <v>6.176298278496006</v>
       </c>
       <c r="O64">
-        <v>-5.461562198730901</v>
+        <v>1.358785621269121</v>
       </c>
       <c r="P64">
-        <v>-19.36372052277319</v>
+        <v>4.817512657226884</v>
       </c>
       <c r="Q64">
-        <v>74.63627947722681</v>
+        <v>98.81751265722689</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.1535941702399891</v>
+        <v>0.1532844795350021</v>
       </c>
       <c r="T64">
-        <v>1.439894676602945</v>
+        <v>1.432718518956098</v>
       </c>
       <c r="U64">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V64">
-        <v>0.2130232680020966</v>
+        <v>0.22</v>
       </c>
       <c r="W64">
-        <v>0.1291683910472107</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>0.9682875818277118</v>
+        <v>1.00821508854317</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6539,13 +6539,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.1399335112838028</v>
+        <v>0.1357148361863271</v>
       </c>
       <c r="C65">
-        <v>672.0080136544029</v>
+        <v>760.05678698272</v>
       </c>
       <c r="D65">
-        <v>3765.809013654404</v>
+        <v>3853.857786982721</v>
       </c>
       <c r="E65">
         <v>1886.501000000001</v>
@@ -6572,37 +6572,37 @@
         <v>758</v>
       </c>
       <c r="M65">
-        <v>795.4514969589477</v>
+        <v>763.9498904589477</v>
       </c>
       <c r="N65">
-        <v>-37.4514969589477</v>
+        <v>-5.949890458947721</v>
       </c>
       <c r="O65">
-        <v>-8.239329330968495</v>
+        <v>-1.308975900968498</v>
       </c>
       <c r="P65">
-        <v>-29.21216762797921</v>
+        <v>-4.640914557979222</v>
       </c>
       <c r="Q65">
-        <v>64.7878323720208</v>
+        <v>89.35908544202078</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.1573183370032321</v>
+        <v>0.1569840799830274</v>
       </c>
       <c r="T65">
-        <v>1.478810748943566</v>
+        <v>1.469531417761178</v>
       </c>
       <c r="U65">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V65">
-        <v>0.2096419462877776</v>
+        <v>0.2182865683766482</v>
       </c>
       <c r="W65">
-        <v>0.1297233755438206</v>
+        <v>0.1232233755438206</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.9529179376717164</v>
+        <v>0.99221167443931</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6621,13 +6621,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.1414168354271392</v>
+        <v>0.1371981603296635</v>
       </c>
       <c r="C66">
-        <v>550.6131251731067</v>
+        <v>638.4339110945775</v>
       </c>
       <c r="D66">
-        <v>3721.341125173108</v>
+        <v>3809.161911094578</v>
       </c>
       <c r="E66">
         <v>1963.428</v>
@@ -6654,37 +6654,37 @@
         <v>758</v>
       </c>
       <c r="M66">
-        <v>808.0777111963913</v>
+        <v>776.0760791963913</v>
       </c>
       <c r="N66">
-        <v>-50.07771119639131</v>
+        <v>-18.07607919639133</v>
       </c>
       <c r="O66">
-        <v>-11.01709646320609</v>
+        <v>-3.976737423206093</v>
       </c>
       <c r="P66">
-        <v>-39.06061473318522</v>
+        <v>-14.09934177318524</v>
       </c>
       <c r="Q66">
-        <v>54.93938526681478</v>
+        <v>79.90065822681476</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.1612494019199885</v>
+        <v>0.1610864155381115</v>
       </c>
       <c r="T66">
-        <v>1.519888825303109</v>
+        <v>1.510351734921211</v>
       </c>
       <c r="U66">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V66">
-        <v>0.2063662908770311</v>
+        <v>0.2148758407457631</v>
       </c>
       <c r="W66">
-        <v>0.1302610167749114</v>
+        <v>0.1237610167749115</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.9380285948955958</v>
+        <v>0.9767083670261958</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6703,13 +6703,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.1429001595704756</v>
+        <v>0.1386814844729998</v>
       </c>
       <c r="C67">
-        <v>430.256162888134</v>
+        <v>517.8358877513347</v>
       </c>
       <c r="D67">
-        <v>3677.911162888136</v>
+        <v>3765.490887751335</v>
       </c>
       <c r="E67">
         <v>2040.355000000001</v>
@@ -6736,37 +6736,37 @@
         <v>758</v>
       </c>
       <c r="M67">
-        <v>820.703925433835</v>
+        <v>788.2022679338349</v>
       </c>
       <c r="N67">
-        <v>-62.70392543383502</v>
+        <v>-30.20226793383495</v>
       </c>
       <c r="O67">
-        <v>-13.79486359544371</v>
+        <v>-6.644498945443688</v>
       </c>
       <c r="P67">
-        <v>-48.90906183839132</v>
+        <v>-23.55776898839126</v>
       </c>
       <c r="Q67">
-        <v>45.09093816160868</v>
+        <v>70.44223101160874</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.1654050991177025</v>
+        <v>0.1654231702677718</v>
       </c>
       <c r="T67">
-        <v>1.56331422031177</v>
+        <v>1.553504641633245</v>
       </c>
       <c r="U67">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V67">
-        <v>0.2031914248635383</v>
+        <v>0.2115700585804436</v>
       </c>
       <c r="W67">
-        <v>0.1307821151988918</v>
+        <v>0.1242821151988918</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.9235973857433557</v>
+        <v>0.961682084456562</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6785,13 +6785,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.1443834837138119</v>
+        <v>0.1401648086163362</v>
       </c>
       <c r="C68">
-        <v>310.9012066111</v>
+        <v>398.2278675108992</v>
       </c>
       <c r="D68">
-        <v>3635.483206611101</v>
+        <v>3722.8098675109</v>
       </c>
       <c r="E68">
         <v>2117.282000000001</v>
@@ -6818,37 +6818,37 @@
         <v>758</v>
       </c>
       <c r="M68">
-        <v>833.3301396712786</v>
+        <v>800.3284566712786</v>
       </c>
       <c r="N68">
-        <v>-75.33013967127863</v>
+        <v>-42.32845667127856</v>
       </c>
       <c r="O68">
-        <v>-16.5726307276813</v>
+        <v>-9.312260467681282</v>
       </c>
       <c r="P68">
-        <v>-58.75750894359733</v>
+        <v>-33.01619620359727</v>
       </c>
       <c r="Q68">
-        <v>35.24249105640267</v>
+        <v>60.98380379640273</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.1698052490917526</v>
+        <v>0.1700150282168239</v>
       </c>
       <c r="T68">
-        <v>1.609294050320939</v>
+        <v>1.599195954622458</v>
       </c>
       <c r="U68">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V68">
-        <v>0.2001127669110604</v>
+        <v>0.2083644516322551</v>
       </c>
       <c r="W68">
-        <v>0.1312874227615395</v>
+        <v>0.1247874227615395</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.9096034859593656</v>
+        <v>0.9471111437829778</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6867,13 +6867,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.1458668078571483</v>
+        <v>0.1416481327596726</v>
       </c>
       <c r="C69">
-        <v>192.5139747356261</v>
+        <v>279.5765632658422</v>
       </c>
       <c r="D69">
-        <v>3594.022974735627</v>
+        <v>3681.085563265842</v>
       </c>
       <c r="E69">
         <v>2194.209</v>
@@ -6900,37 +6900,37 @@
         <v>758</v>
       </c>
       <c r="M69">
-        <v>845.9563539087221</v>
+        <v>812.4546454087222</v>
       </c>
       <c r="N69">
-        <v>-87.95635390872212</v>
+        <v>-54.45464540872217</v>
       </c>
       <c r="O69">
-        <v>-19.35039785991887</v>
+        <v>-11.98002198991888</v>
       </c>
       <c r="P69">
-        <v>-68.60595604880325</v>
+        <v>-42.47462341880329</v>
       </c>
       <c r="Q69">
-        <v>25.39404395119675</v>
+        <v>51.52537658119671</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.1744720748218057</v>
+        <v>0.1748851805870307</v>
       </c>
       <c r="T69">
-        <v>1.658060536694301</v>
+        <v>1.647656438095866</v>
       </c>
       <c r="U69">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V69">
-        <v>0.19712600919597</v>
+        <v>0.205254534443714</v>
       </c>
       <c r="W69">
-        <v>0.1317776465163469</v>
+        <v>0.1252776465163469</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.8960273145271364</v>
+        <v>0.9329751565623363</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6949,13 +6949,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.1473501320004846</v>
+        <v>0.1431314569030089</v>
       </c>
       <c r="C70">
-        <v>75.06173185627085</v>
+        <v>161.8501636625315</v>
       </c>
       <c r="D70">
-        <v>3553.497731856272</v>
+        <v>3640.286163662533</v>
       </c>
       <c r="E70">
         <v>2271.136000000001</v>
@@ -6982,37 +6982,37 @@
         <v>758</v>
       </c>
       <c r="M70">
-        <v>858.5825681461658</v>
+        <v>824.5808341461658</v>
       </c>
       <c r="N70">
-        <v>-100.5825681461658</v>
+        <v>-66.58083414616578</v>
       </c>
       <c r="O70">
-        <v>-22.12816499215648</v>
+        <v>-14.64778351215647</v>
       </c>
       <c r="P70">
-        <v>-78.45440315400936</v>
+        <v>-51.93305063400931</v>
       </c>
       <c r="Q70">
-        <v>15.54559684599064</v>
+        <v>42.06694936599069</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.1794305771599871</v>
+        <v>0.1800597174803754</v>
       </c>
       <c r="T70">
-        <v>1.709874928465998</v>
+        <v>1.699145701786362</v>
       </c>
       <c r="U70">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V70">
-        <v>0.1942270972960292</v>
+        <v>0.202236085407777</v>
       </c>
       <c r="W70">
-        <v>0.1322534519254246</v>
+        <v>0.1257534519254246</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.8828504422546783</v>
+        <v>0.9192549336717137</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7031,13 +7031,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.148833456143821</v>
+        <v>0.1446147810463452</v>
       </c>
       <c r="C71">
-        <v>-41.48679743223329</v>
+        <v>45.01825221487161</v>
       </c>
       <c r="D71">
-        <v>3513.876202567767</v>
+        <v>3600.381252214872</v>
       </c>
       <c r="E71">
         <v>2348.063000000001</v>
@@ -7064,37 +7064,37 @@
         <v>758</v>
       </c>
       <c r="M71">
-        <v>871.2087823836094</v>
+        <v>836.7070228836094</v>
       </c>
       <c r="N71">
-        <v>-113.2087823836094</v>
+        <v>-78.7070228836094</v>
       </c>
       <c r="O71">
-        <v>-24.90593212439408</v>
+        <v>-17.31554503439407</v>
       </c>
       <c r="P71">
-        <v>-88.30285025921538</v>
+        <v>-61.39147784921533</v>
       </c>
       <c r="Q71">
-        <v>5.697149740784624</v>
+        <v>32.60852215078467</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.1847089828748254</v>
+        <v>0.1855680954636133</v>
       </c>
       <c r="T71">
-        <v>1.765032184222966</v>
+        <v>1.753956853456889</v>
       </c>
       <c r="U71">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V71">
-        <v>0.1914122118279709</v>
+        <v>0.199305127648244</v>
       </c>
       <c r="W71">
-        <v>0.1327154658733697</v>
+        <v>0.1262154658733697</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.8700555083089584</v>
+        <v>0.9059323984011092</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7113,13 +7113,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.1503167802871574</v>
+        <v>0.1460981051896816</v>
       </c>
       <c r="C72">
-        <v>-157.1615090325067</v>
+        <v>-70.94826831957653</v>
       </c>
       <c r="D72">
-        <v>3475.128490967495</v>
+        <v>3561.341731680425</v>
       </c>
       <c r="E72">
         <v>2424.990000000001</v>
@@ -7146,37 +7146,37 @@
         <v>758</v>
       </c>
       <c r="M72">
-        <v>883.8349966210532</v>
+        <v>848.8332116210531</v>
       </c>
       <c r="N72">
-        <v>-125.8349966210532</v>
+        <v>-90.83321162105312</v>
       </c>
       <c r="O72">
-        <v>-27.6836992566317</v>
+        <v>-19.98330655663169</v>
       </c>
       <c r="P72">
-        <v>-98.15129736442147</v>
+        <v>-70.84990506442143</v>
       </c>
       <c r="Q72">
-        <v>-4.151297364421467</v>
+        <v>23.15009493557857</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.1903392823039863</v>
+        <v>0.1914436986457338</v>
       </c>
       <c r="T72">
-        <v>1.823866590363731</v>
+        <v>1.812422081905453</v>
       </c>
       <c r="U72">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V72">
-        <v>0.1886777516589998</v>
+        <v>0.1964579115389834</v>
       </c>
       <c r="W72">
-        <v>0.1331642794228021</v>
+        <v>0.1266642794228021</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.8576261439045445</v>
+        <v>0.892990506995379</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7195,13 +7195,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.1518001044304937</v>
+        <v>0.147581429333018</v>
       </c>
       <c r="C73">
-        <v>-271.9909945742165</v>
+        <v>-186.0772466962289</v>
       </c>
       <c r="D73">
-        <v>3437.226005425784</v>
+        <v>3523.139753303771</v>
       </c>
       <c r="E73">
         <v>2501.917</v>
@@ -7228,37 +7228,37 @@
         <v>758</v>
       </c>
       <c r="M73">
-        <v>896.4612108584965</v>
+        <v>860.9594003584965</v>
       </c>
       <c r="N73">
-        <v>-138.4612108584965</v>
+        <v>-102.9594003584965</v>
       </c>
       <c r="O73">
-        <v>-30.46146638886924</v>
+        <v>-22.65106807886923</v>
       </c>
       <c r="P73">
-        <v>-107.9997444696273</v>
+        <v>-80.30833227962728</v>
       </c>
       <c r="Q73">
-        <v>-13.9997444696273</v>
+        <v>13.69166772037272</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.196357878245503</v>
+        <v>0.1977245158404142</v>
       </c>
       <c r="T73">
-        <v>1.886758541755583</v>
+        <v>1.874919395074606</v>
       </c>
       <c r="U73">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V73">
-        <v>0.1860203185370421</v>
+        <v>0.1936908987004062</v>
       </c>
       <c r="W73">
-        <v>0.1336004503370392</v>
+        <v>0.1271004503370392</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.8455469024411005</v>
+        <v>0.8804131759109373</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7277,13 +7277,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.1532834285738301</v>
+        <v>0.1490647534763543</v>
       </c>
       <c r="C74">
-        <v>-386.0026117738362</v>
+        <v>-300.3953494345024</v>
       </c>
       <c r="D74">
-        <v>3400.141388226164</v>
+        <v>3485.748650565499</v>
       </c>
       <c r="E74">
         <v>2578.844000000001</v>
@@ -7310,37 +7310,37 @@
         <v>758</v>
       </c>
       <c r="M74">
-        <v>909.0874250959403</v>
+        <v>873.0855890959402</v>
       </c>
       <c r="N74">
-        <v>-151.0874250959403</v>
+        <v>-115.0855890959402</v>
       </c>
       <c r="O74">
-        <v>-33.23923352110686</v>
+        <v>-25.31882960110685</v>
       </c>
       <c r="P74">
-        <v>-117.8481915748334</v>
+        <v>-89.76675949483338</v>
       </c>
       <c r="Q74">
-        <v>-23.84819157483341</v>
+        <v>4.23324050516662</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.2028063738971281</v>
+        <v>0.2044539628347148</v>
       </c>
       <c r="T74">
-        <v>1.954142775389712</v>
+        <v>1.941880802041556</v>
       </c>
       <c r="U74">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V74">
-        <v>0.1834367030018054</v>
+        <v>0.1910007473295672</v>
       </c>
       <c r="W74">
-        <v>0.1340245053925475</v>
+        <v>0.1275245053925475</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.8338031954627518</v>
+        <v>0.8681852151343963</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7359,13 +7359,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.1547667527171664</v>
+        <v>0.1505480776196907</v>
       </c>
       <c r="C75">
-        <v>-499.2225502882584</v>
+        <v>-413.9281228943537</v>
       </c>
       <c r="D75">
-        <v>3363.848449711742</v>
+        <v>3449.142877105647</v>
       </c>
       <c r="E75">
         <v>2655.771</v>
@@ -7392,37 +7392,37 @@
         <v>758</v>
       </c>
       <c r="M75">
-        <v>921.7136393333839</v>
+        <v>885.2117778333837</v>
       </c>
       <c r="N75">
-        <v>-163.7136393333839</v>
+        <v>-127.2117778333837</v>
       </c>
       <c r="O75">
-        <v>-36.01700065334445</v>
+        <v>-27.98659112334442</v>
       </c>
       <c r="P75">
-        <v>-127.6966386800394</v>
+        <v>-99.22518671003931</v>
       </c>
       <c r="Q75">
-        <v>-33.69663868003941</v>
+        <v>-5.22518671003931</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.209732535893318</v>
+        <v>0.2116818873841486</v>
       </c>
       <c r="T75">
-        <v>2.026518433737478</v>
+        <v>2.01380231322828</v>
       </c>
       <c r="U75">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V75">
-        <v>0.1809238714538355</v>
+        <v>0.1883842987360115</v>
       </c>
       <c r="W75">
-        <v>0.1344369425013295</v>
+        <v>0.1279369425013295</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.8223812338810703</v>
+        <v>0.8562922669818704</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7441,13 +7441,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.1562500768605028</v>
+        <v>0.152031401763027</v>
       </c>
       <c r="C76">
-        <v>-611.6758933954816</v>
+        <v>-526.7000514821202</v>
       </c>
       <c r="D76">
-        <v>3328.322106604519</v>
+        <v>3413.297948517881</v>
       </c>
       <c r="E76">
         <v>2732.698000000001</v>
@@ -7474,37 +7474,37 @@
         <v>758</v>
       </c>
       <c r="M76">
-        <v>934.3398535708275</v>
+        <v>897.3379665708275</v>
       </c>
       <c r="N76">
-        <v>-176.3398535708275</v>
+        <v>-139.3379665708275</v>
       </c>
       <c r="O76">
-        <v>-38.79476778558205</v>
+        <v>-30.65435264558204</v>
       </c>
       <c r="P76">
-        <v>-137.5450857852454</v>
+        <v>-108.6836139252454</v>
       </c>
       <c r="Q76">
-        <v>-43.54508578524542</v>
+        <v>-14.68361392524542</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.2171914795815225</v>
+        <v>0.2194658061296928</v>
       </c>
       <c r="T76">
-        <v>2.104461450419689</v>
+        <v>2.091256248352445</v>
       </c>
       <c r="U76">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V76">
-        <v>0.1784789542720269</v>
+        <v>0.1858385649693086</v>
       </c>
       <c r="W76">
-        <v>0.1348382326612256</v>
+        <v>0.1283382326612256</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.8112679739637585</v>
+        <v>0.8447207498604937</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7523,13 +7523,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.1577334010038391</v>
+        <v>0.1535147259063634</v>
       </c>
       <c r="C77">
-        <v>-723.3866758075792</v>
+        <v>-638.7346122642566</v>
       </c>
       <c r="D77">
-        <v>3293.538324192421</v>
+        <v>3378.190387735744</v>
       </c>
       <c r="E77">
         <v>2809.625</v>
@@ -7556,37 +7556,37 @@
         <v>758</v>
       </c>
       <c r="M77">
-        <v>946.9660678082711</v>
+        <v>909.4641553082711</v>
       </c>
       <c r="N77">
-        <v>-188.9660678082711</v>
+        <v>-151.4641553082711</v>
       </c>
       <c r="O77">
-        <v>-41.57253491781964</v>
+        <v>-33.32211416781963</v>
       </c>
       <c r="P77">
-        <v>-147.3935328904514</v>
+        <v>-118.1420411404514</v>
       </c>
       <c r="Q77">
-        <v>-53.39353289045144</v>
+        <v>-24.14204114045144</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.2252471387647834</v>
+        <v>0.2278724383748805</v>
       </c>
       <c r="T77">
-        <v>2.188639908436477</v>
+        <v>2.174906498286543</v>
       </c>
       <c r="U77">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V77">
-        <v>0.1760992348817332</v>
+        <v>0.1833607174363845</v>
       </c>
       <c r="W77">
-        <v>0.135228821750191</v>
+        <v>0.128728821750191</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>0.8004510676442418</v>
+        <v>0.8334578065290205</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7605,13 +7605,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.1842014395641974</v>
+        <v>0.1549980500496998</v>
       </c>
       <c r="C78">
-        <v>-1317.966610309429</v>
+        <v>-750.0543262450274</v>
       </c>
       <c r="D78">
-        <v>2775.885389690572</v>
+        <v>3343.797673754973</v>
       </c>
       <c r="E78">
         <v>2886.552</v>
@@ -7638,45 +7638,45 @@
         <v>758</v>
       </c>
       <c r="M78">
-        <v>1142.001584445715</v>
+        <v>921.5903440457146</v>
       </c>
       <c r="N78">
-        <v>-384.0015844457146</v>
+        <v>-163.5903440457146</v>
       </c>
       <c r="O78">
-        <v>-84.4803485780572</v>
+        <v>-35.9898756900572</v>
       </c>
       <c r="P78">
-        <v>-299.5212358676574</v>
+        <v>-127.6004683556574</v>
       </c>
       <c r="Q78">
-        <v>-205.5212358676574</v>
+        <v>-33.60046835565737</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.2392770796175738</v>
+        <v>0.2369796233071672</v>
       </c>
       <c r="T78">
-        <v>2.335247251198532</v>
+        <v>2.265527602381816</v>
       </c>
       <c r="U78">
-        <v>0.195332414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V78">
-        <v>0.1460243157901915</v>
+        <v>0.1809480764174847</v>
       </c>
       <c r="W78">
-        <v>0.1668091321789206</v>
+        <v>0.1291091321789206</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y78">
-        <v>0.6637468899554156</v>
+        <v>0.8224912564431124</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7687,13 +7687,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.1859967637075338</v>
+        <v>0.1564813741930361</v>
       </c>
       <c r="C79">
-        <v>-1424.175095754182</v>
+        <v>-860.6808065434489</v>
       </c>
       <c r="D79">
-        <v>2746.603904245819</v>
+        <v>3310.098193456553</v>
       </c>
       <c r="E79">
         <v>2963.479000000001</v>
@@ -7720,45 +7720,45 @@
         <v>758</v>
       </c>
       <c r="M79">
-        <v>1157.027921083158</v>
+        <v>933.7165327831583</v>
       </c>
       <c r="N79">
-        <v>-399.0279210831584</v>
+        <v>-175.7165327831583</v>
       </c>
       <c r="O79">
-        <v>-87.78614263829485</v>
+        <v>-38.65763721229482</v>
       </c>
       <c r="P79">
-        <v>-311.2417784448635</v>
+        <v>-137.0588955708635</v>
       </c>
       <c r="Q79">
-        <v>-217.2417784448635</v>
+        <v>-43.05889557086348</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.2489934743835553</v>
+        <v>0.2468787373640006</v>
       </c>
       <c r="T79">
-        <v>2.436779740381077</v>
+        <v>2.364028802485373</v>
       </c>
       <c r="U79">
-        <v>0.195332414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V79">
-        <v>0.1441278961046045</v>
+        <v>0.1785981013990758</v>
       </c>
       <c r="W79">
-        <v>0.1671795644146961</v>
+        <v>0.1294795644146961</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y79">
-        <v>0.6551268004754751</v>
+        <v>0.811809551813981</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7769,13 +7769,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.1877920878508701</v>
+        <v>0.1579646983363725</v>
       </c>
       <c r="C80">
-        <v>-1529.772276825242</v>
+        <v>-970.6348036860963</v>
       </c>
       <c r="D80">
-        <v>2717.933723174758</v>
+        <v>3277.071196313904</v>
       </c>
       <c r="E80">
         <v>3040.406</v>
@@ -7802,45 +7802,45 @@
         <v>758</v>
       </c>
       <c r="M80">
-        <v>1172.054257720602</v>
+        <v>945.8427215206019</v>
       </c>
       <c r="N80">
-        <v>-414.054257720602</v>
+        <v>-187.8427215206019</v>
       </c>
       <c r="O80">
-        <v>-91.09193669853244</v>
+        <v>-41.32539873453242</v>
       </c>
       <c r="P80">
-        <v>-322.9623210220695</v>
+        <v>-146.5173227860695</v>
       </c>
       <c r="Q80">
-        <v>-228.9623210220695</v>
+        <v>-52.51732278606949</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.259593177764626</v>
+        <v>0.2576777708805461</v>
       </c>
       <c r="T80">
-        <v>2.547542455852944</v>
+        <v>2.471484657143799</v>
       </c>
       <c r="U80">
-        <v>0.195332414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V80">
-        <v>0.1422801025648019</v>
+        <v>0.1763083821503697</v>
       </c>
       <c r="W80">
-        <v>0.1675404983880159</v>
+        <v>0.1298404983880158</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y80">
-        <v>0.6467277389309176</v>
+        <v>0.801401737047135</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7851,13 +7851,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.1895874119942064</v>
+        <v>0.1855355907140956</v>
       </c>
       <c r="C81">
-        <v>-1634.77709890229</v>
+        <v>-1560.237914689597</v>
       </c>
       <c r="D81">
-        <v>2689.855901097711</v>
+        <v>2764.395085310403</v>
       </c>
       <c r="E81">
         <v>3117.333000000001</v>
@@ -7884,37 +7884,37 @@
         <v>758</v>
       </c>
       <c r="M81">
-        <v>1187.080594358046</v>
+        <v>1147.578579858045</v>
       </c>
       <c r="N81">
-        <v>-429.0805943580458</v>
+        <v>-389.5785798580455</v>
       </c>
       <c r="O81">
-        <v>-94.39773075877008</v>
+        <v>-85.70728756877001</v>
       </c>
       <c r="P81">
-        <v>-334.6828635992757</v>
+        <v>-303.8712922892755</v>
       </c>
       <c r="Q81">
-        <v>-240.6828635992757</v>
+        <v>-209.8712922892755</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.2712023767057987</v>
+        <v>0.276360370610033</v>
       </c>
       <c r="T81">
-        <v>2.668854001369751</v>
+        <v>2.657385989711891</v>
       </c>
       <c r="U81">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V81">
-        <v>0.1404790886082854</v>
+        <v>0.1453146677072241</v>
       </c>
       <c r="W81">
-        <v>0.1678922947923908</v>
+        <v>0.1613922947923908</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.6385413118558427</v>
+        <v>0.6605212168510186</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7933,13 +7933,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.1913827361375428</v>
+        <v>0.187330914857432</v>
       </c>
       <c r="C82">
-        <v>-1739.207732502996</v>
+        <v>-1665.042012565281</v>
       </c>
       <c r="D82">
-        <v>2662.352267497005</v>
+        <v>2736.51798743472</v>
       </c>
       <c r="E82">
         <v>3194.260000000001</v>
@@ -7966,37 +7966,37 @@
         <v>758</v>
       </c>
       <c r="M82">
-        <v>1202.106930995489</v>
+        <v>1162.104890995489</v>
       </c>
       <c r="N82">
-        <v>-444.1069309954892</v>
+        <v>-404.1048909954891</v>
       </c>
       <c r="O82">
-        <v>-97.70352481900761</v>
+        <v>-88.9030760190076</v>
       </c>
       <c r="P82">
-        <v>-346.4034061764816</v>
+        <v>-315.2018149764815</v>
       </c>
       <c r="Q82">
-        <v>-252.4034061764816</v>
+        <v>-221.2018149764815</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.2839724955410886</v>
+        <v>0.2897133891405346</v>
       </c>
       <c r="T82">
-        <v>2.802296701438239</v>
+        <v>2.790255289197485</v>
       </c>
       <c r="U82">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V82">
-        <v>0.1387231000006819</v>
+        <v>0.1434982343608838</v>
       </c>
       <c r="W82">
-        <v>0.1682352962866563</v>
+        <v>0.1617352962866563</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.6305595454576447</v>
+        <v>0.6522647016403809</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8015,13 +8015,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.1931780602808792</v>
+        <v>0.1891262390007683</v>
       </c>
       <c r="C83">
-        <v>-1843.081612496695</v>
+        <v>-1769.289479471643</v>
       </c>
       <c r="D83">
-        <v>2635.405387503306</v>
+        <v>2709.197520528359</v>
       </c>
       <c r="E83">
         <v>3271.187000000001</v>
@@ -8048,37 +8048,37 @@
         <v>758</v>
       </c>
       <c r="M83">
-        <v>1217.133267632933</v>
+        <v>1176.631202132933</v>
       </c>
       <c r="N83">
-        <v>-459.133267632933</v>
+        <v>-418.6312021329327</v>
       </c>
       <c r="O83">
-        <v>-101.0093188792453</v>
+        <v>-92.09886446924519</v>
       </c>
       <c r="P83">
-        <v>-358.1239487536877</v>
+        <v>-326.5323376636875</v>
       </c>
       <c r="Q83">
-        <v>-264.1239487536877</v>
+        <v>-232.5323376636875</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.2980868374116723</v>
+        <v>0.3044719885689838</v>
       </c>
       <c r="T83">
-        <v>2.949786001513937</v>
+        <v>2.937110830734195</v>
       </c>
       <c r="U83">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V83">
-        <v>0.1370104691364759</v>
+        <v>0.141726651220626</v>
       </c>
       <c r="W83">
-        <v>0.168569828608224</v>
+        <v>0.162069828608224</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.622774859711254</v>
+        <v>0.6442120510028453</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8097,13 +8097,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.1949733844242155</v>
+        <v>0.1909215631441047</v>
       </c>
       <c r="C84">
-        <v>-1946.415474960491</v>
+        <v>-1872.996822254026</v>
       </c>
       <c r="D84">
-        <v>2608.998525039509</v>
+        <v>2682.417177745975</v>
       </c>
       <c r="E84">
         <v>3348.114000000001</v>
@@ -8130,37 +8130,37 @@
         <v>758</v>
       </c>
       <c r="M84">
-        <v>1232.159604270377</v>
+        <v>1191.157513270376</v>
       </c>
       <c r="N84">
-        <v>-474.1596042703766</v>
+        <v>-433.1575132703763</v>
       </c>
       <c r="O84">
-        <v>-104.3151129394828</v>
+        <v>-95.29465291948279</v>
       </c>
       <c r="P84">
-        <v>-369.8444913308937</v>
+        <v>-337.8628603508935</v>
       </c>
       <c r="Q84">
-        <v>-275.8444913308937</v>
+        <v>-243.8628603508935</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.3137694394900985</v>
+        <v>0.3208704323783718</v>
       </c>
       <c r="T84">
-        <v>3.113663001598044</v>
+        <v>3.100283654663873</v>
       </c>
       <c r="U84">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V84">
-        <v>0.1353396097567628</v>
+        <v>0.1399982774252525</v>
       </c>
       <c r="W84">
-        <v>0.1688962016048754</v>
+        <v>0.1623962016048753</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.6151800443489217</v>
+        <v>0.6363558064784204</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8179,13 +8179,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.1967687085675519</v>
+        <v>0.1927168872874411</v>
       </c>
       <c r="C85">
-        <v>-2049.225391841583</v>
+        <v>-1976.179901467498</v>
       </c>
       <c r="D85">
-        <v>2583.115608158418</v>
+        <v>2656.161098532502</v>
       </c>
       <c r="E85">
         <v>3425.041000000001</v>
@@ -8212,37 +8212,37 @@
         <v>758</v>
       </c>
       <c r="M85">
-        <v>1247.18594090782</v>
+        <v>1205.68382440782</v>
       </c>
       <c r="N85">
-        <v>-489.1859409078202</v>
+        <v>-447.6838244078199</v>
       </c>
       <c r="O85">
-        <v>-107.6209069997204</v>
+        <v>-98.49044136972037</v>
       </c>
       <c r="P85">
-        <v>-381.5650339080997</v>
+        <v>-349.1933830380995</v>
       </c>
       <c r="Q85">
-        <v>-287.5650339080997</v>
+        <v>-255.1933830380995</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.3312970535777514</v>
+        <v>0.3391981048712173</v>
       </c>
       <c r="T85">
-        <v>3.29681964875087</v>
+        <v>3.282653281408808</v>
       </c>
       <c r="U85">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V85">
-        <v>0.13370901204885</v>
+        <v>0.1383115511912133</v>
       </c>
       <c r="W85">
-        <v>0.1692147101919689</v>
+        <v>0.1627147101919688</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.6077682365856816</v>
+        <v>0.6286888690509695</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8261,13 +8261,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.1985640327108882</v>
+        <v>0.1945122114307774</v>
       </c>
       <c r="C86">
-        <v>-2151.526803576587</v>
+        <v>-2078.853962700381</v>
       </c>
       <c r="D86">
-        <v>2557.741196423414</v>
+        <v>2630.414037299619</v>
       </c>
       <c r="E86">
         <v>3501.968</v>
@@ -8294,37 +8294,37 @@
         <v>758</v>
       </c>
       <c r="M86">
-        <v>1262.212277545264</v>
+        <v>1220.210135545263</v>
       </c>
       <c r="N86">
-        <v>-504.2122775452635</v>
+        <v>-462.2101355452635</v>
       </c>
       <c r="O86">
-        <v>-110.926701059958</v>
+        <v>-101.686229819958</v>
       </c>
       <c r="P86">
-        <v>-393.2855764853056</v>
+        <v>-360.5239057253055</v>
       </c>
       <c r="Q86">
-        <v>-299.2855764853056</v>
+        <v>-266.5239057253055</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.3510156194263607</v>
+        <v>0.3598167364256681</v>
       </c>
       <c r="T86">
-        <v>3.502870876797798</v>
+        <v>3.487819111496856</v>
       </c>
       <c r="U86">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V86">
-        <v>0.1321172380958875</v>
+        <v>0.1366649851056036</v>
       </c>
       <c r="W86">
-        <v>0.1695256352412744</v>
+        <v>0.1630256352412744</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.6005329004358522</v>
+        <v>0.6212044777527437</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8343,13 +8343,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2003593568542246</v>
+        <v>0.1963075355741138</v>
       </c>
       <c r="C87">
-        <v>-2253.334549807036</v>
+        <v>-2181.033666093521</v>
       </c>
       <c r="D87">
-        <v>2532.860450192964</v>
+        <v>2605.161333906479</v>
       </c>
       <c r="E87">
         <v>3578.895</v>
@@ -8376,37 +8376,37 @@
         <v>758</v>
       </c>
       <c r="M87">
-        <v>1277.238614182707</v>
+        <v>1234.736446682707</v>
       </c>
       <c r="N87">
-        <v>-519.2386141827071</v>
+        <v>-476.7364466827069</v>
       </c>
       <c r="O87">
-        <v>-114.2324951201956</v>
+        <v>-104.8820182701955</v>
       </c>
       <c r="P87">
-        <v>-405.0061190625116</v>
+        <v>-371.8544284125114</v>
       </c>
       <c r="Q87">
-        <v>-311.0061190625116</v>
+        <v>-277.8544284125114</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.3733633273881181</v>
+        <v>0.383184518854046</v>
       </c>
       <c r="T87">
-        <v>3.736395601917651</v>
+        <v>3.720340385596646</v>
       </c>
       <c r="U87">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V87">
-        <v>0.1305629176477006</v>
+        <v>0.1350571617514201</v>
       </c>
       <c r="W87">
-        <v>0.1698292444070669</v>
+        <v>0.1633292444070669</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.5934678074895481</v>
+        <v>0.6138961897791821</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8425,13 +8425,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.202154680997561</v>
+        <v>0.1981028597174501</v>
       </c>
       <c r="C88">
-        <v>-2354.662898319407</v>
+        <v>-2282.733114175336</v>
       </c>
       <c r="D88">
-        <v>2508.459101680593</v>
+        <v>2580.388885824665</v>
       </c>
       <c r="E88">
         <v>3655.822000000001</v>
@@ -8458,37 +8458,37 @@
         <v>758</v>
       </c>
       <c r="M88">
-        <v>1292.264950820151</v>
+        <v>1249.262757820151</v>
       </c>
       <c r="N88">
-        <v>-534.2649508201509</v>
+        <v>-491.2627578201507</v>
       </c>
       <c r="O88">
-        <v>-117.5382891804332</v>
+        <v>-108.0778067204331</v>
       </c>
       <c r="P88">
-        <v>-416.7266616397177</v>
+        <v>-383.1849510997175</v>
       </c>
       <c r="Q88">
-        <v>-322.7266616397177</v>
+        <v>-289.1849510997175</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.3989035650586979</v>
+        <v>0.4098905559150494</v>
       </c>
       <c r="T88">
-        <v>4.003281002054626</v>
+        <v>3.986078984567836</v>
       </c>
       <c r="U88">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V88">
-        <v>0.1290447441866808</v>
+        <v>0.1334867296380314</v>
       </c>
       <c r="W88">
-        <v>0.1701257928945852</v>
+        <v>0.1636257928945851</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.5865670190303671</v>
+        <v>0.606757861991052</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8507,13 +8507,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2039500051408973</v>
+        <v>0.1998981838607865</v>
       </c>
       <c r="C89">
-        <v>-2455.525572328273</v>
+        <v>-2383.965878123755</v>
       </c>
       <c r="D89">
-        <v>2484.523427671727</v>
+        <v>2556.083121876246</v>
       </c>
       <c r="E89">
         <v>3732.749</v>
@@ -8540,37 +8540,37 @@
         <v>758</v>
       </c>
       <c r="M89">
-        <v>1307.291287457595</v>
+        <v>1263.789068957594</v>
       </c>
       <c r="N89">
-        <v>-549.2912874575945</v>
+        <v>-505.7890689575943</v>
       </c>
       <c r="O89">
-        <v>-120.8440832406708</v>
+        <v>-111.2735951706707</v>
       </c>
       <c r="P89">
-        <v>-428.4472042169238</v>
+        <v>-394.5154737869235</v>
       </c>
       <c r="Q89">
-        <v>-334.4472042169238</v>
+        <v>-300.5154737869235</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.4283730700632131</v>
+        <v>0.4407052140623608</v>
       </c>
       <c r="T89">
-        <v>4.311225694520366</v>
+        <v>4.292700444919207</v>
       </c>
       <c r="U89">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V89">
-        <v>0.1275614712649948</v>
+        <v>0.1319523994123069</v>
       </c>
       <c r="W89">
-        <v>0.1704155241754938</v>
+        <v>0.1639155241754938</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.5798248693863399</v>
+        <v>0.5997836336923043</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8589,13 +8589,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2057453292842337</v>
+        <v>0.2016935080041229</v>
       </c>
       <c r="C90">
-        <v>-2555.935776212214</v>
+        <v>-2484.74502255776</v>
       </c>
       <c r="D90">
-        <v>2461.040223787787</v>
+        <v>2532.230977442241</v>
       </c>
       <c r="E90">
         <v>3809.676000000001</v>
@@ -8622,37 +8622,37 @@
         <v>758</v>
       </c>
       <c r="M90">
-        <v>1322.317624095038</v>
+        <v>1278.315380095038</v>
       </c>
       <c r="N90">
-        <v>-564.3176240950381</v>
+        <v>-520.3153800950379</v>
       </c>
       <c r="O90">
-        <v>-124.1498773009084</v>
+        <v>-114.4693836209083</v>
       </c>
       <c r="P90">
-        <v>-440.1677467941298</v>
+        <v>-405.8459964741295</v>
       </c>
       <c r="Q90">
-        <v>-346.1677467941298</v>
+        <v>-311.8459964741295</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.4627541592351477</v>
+        <v>0.4766556485675577</v>
       </c>
       <c r="T90">
-        <v>4.670494502397065</v>
+        <v>4.650425481995809</v>
       </c>
       <c r="U90">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V90">
-        <v>0.1261119090915289</v>
+        <v>0.1304529403280762</v>
       </c>
       <c r="W90">
-        <v>0.1706986706545636</v>
+        <v>0.1641986706545636</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.5732359504160407</v>
+        <v>0.5929679105821645</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8671,13 +8671,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2075406534275701</v>
+        <v>0.2034888321474592</v>
       </c>
       <c r="C91">
-        <v>-2655.906219803884</v>
+        <v>-2585.083128953693</v>
       </c>
       <c r="D91">
-        <v>2437.996780196117</v>
+        <v>2508.819871046308</v>
       </c>
       <c r="E91">
         <v>3886.603000000001</v>
@@ -8704,37 +8704,37 @@
         <v>758</v>
       </c>
       <c r="M91">
-        <v>1337.343960732482</v>
+        <v>1292.841691232481</v>
       </c>
       <c r="N91">
-        <v>-579.3439607324817</v>
+        <v>-534.8416912324815</v>
       </c>
       <c r="O91">
-        <v>-127.455671361146</v>
+        <v>-117.6651720711459</v>
       </c>
       <c r="P91">
-        <v>-451.8882893713358</v>
+        <v>-417.1765191613355</v>
       </c>
       <c r="Q91">
-        <v>-357.8882893713358</v>
+        <v>-323.1765191613355</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.503386355529252</v>
+        <v>0.5191425257100629</v>
       </c>
       <c r="T91">
-        <v>5.095084911705889</v>
+        <v>5.073191434904519</v>
       </c>
       <c r="U91">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V91">
-        <v>0.1246949213489275</v>
+        <v>0.1289871769536034</v>
       </c>
       <c r="W91">
-        <v>0.1709754542914071</v>
+        <v>0.1644754542914071</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.5667950970405795</v>
+        <v>0.5863053497891064</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8753,13 +8753,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2093359775709064</v>
+        <v>0.2052841562907955</v>
       </c>
       <c r="C92">
-        <v>-2755.449141328133</v>
+        <v>-2684.99231777455</v>
       </c>
       <c r="D92">
-        <v>2415.380858671868</v>
+        <v>2485.837682225451</v>
       </c>
       <c r="E92">
         <v>3963.530000000001</v>
@@ -8786,37 +8786,37 @@
         <v>758</v>
       </c>
       <c r="M92">
-        <v>1352.370297369926</v>
+        <v>1307.368002369925</v>
       </c>
       <c r="N92">
-        <v>-594.3702973699255</v>
+        <v>-549.3680023699253</v>
       </c>
       <c r="O92">
-        <v>-130.7614654213836</v>
+        <v>-120.8609605213836</v>
       </c>
       <c r="P92">
-        <v>-463.6088319485419</v>
+        <v>-428.5070418485417</v>
       </c>
       <c r="Q92">
-        <v>-369.6088319485419</v>
+        <v>-334.5070418485417</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.5521449910821773</v>
+        <v>0.5701267782810692</v>
       </c>
       <c r="T92">
-        <v>5.604593402876478</v>
+        <v>5.58051057839497</v>
       </c>
       <c r="U92">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V92">
-        <v>0.1233094222228283</v>
+        <v>0.1275539860985634</v>
       </c>
       <c r="W92">
-        <v>0.1712460871807652</v>
+        <v>0.1647460871807652</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.5604973737401286</v>
+        <v>0.5797908459025607</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8835,13 +8835,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2111313017142428</v>
+        <v>0.2070794804341319</v>
       </c>
       <c r="C93">
-        <v>-2854.576329075154</v>
+        <v>-2784.484269393993</v>
       </c>
       <c r="D93">
-        <v>2393.180670924847</v>
+        <v>2463.272730606008</v>
       </c>
       <c r="E93">
         <v>4040.457000000001</v>
@@ -8868,37 +8868,37 @@
         <v>758</v>
       </c>
       <c r="M93">
-        <v>1367.396634007369</v>
+        <v>1321.894313507369</v>
       </c>
       <c r="N93">
-        <v>-609.3966340073689</v>
+        <v>-563.8943135073687</v>
       </c>
       <c r="O93">
-        <v>-134.0672594816212</v>
+        <v>-124.0567489716211</v>
       </c>
       <c r="P93">
-        <v>-475.3293745257478</v>
+        <v>-439.8375645357476</v>
       </c>
       <c r="Q93">
-        <v>-381.3293745257478</v>
+        <v>-345.8375645357476</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.6117388789801971</v>
+        <v>0.6324408647567437</v>
       </c>
       <c r="T93">
-        <v>6.227326003196088</v>
+        <v>6.200567309327746</v>
       </c>
       <c r="U93">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V93">
-        <v>0.121954373626973</v>
+        <v>0.1261522939436341</v>
       </c>
       <c r="W93">
-        <v>0.171510772094533</v>
+        <v>0.165010772094533</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.5543380619407866</v>
+        <v>0.5734195179256096</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8917,13 +8917,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2129266258575791</v>
+        <v>0.2088748045774683</v>
       </c>
       <c r="C94">
-        <v>-2953.299141889306</v>
+        <v>-2883.570243891009</v>
       </c>
       <c r="D94">
-        <v>2371.384858110695</v>
+        <v>2441.113756108992</v>
       </c>
       <c r="E94">
         <v>4117.384</v>
@@ -8950,37 +8950,37 @@
         <v>758</v>
       </c>
       <c r="M94">
-        <v>1382.422970644812</v>
+        <v>1336.420624644812</v>
       </c>
       <c r="N94">
-        <v>-624.4229706448125</v>
+        <v>-578.4206246448123</v>
       </c>
       <c r="O94">
-        <v>-137.3730535418588</v>
+        <v>-127.2525374218587</v>
       </c>
       <c r="P94">
-        <v>-487.0499171029537</v>
+        <v>-451.1680872229535</v>
       </c>
       <c r="Q94">
-        <v>-393.0499171029537</v>
+        <v>-357.1680872229535</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.6862312388527219</v>
+        <v>0.7103334728513369</v>
       </c>
       <c r="T94">
-        <v>7.005741753595601</v>
+        <v>6.975638222993717</v>
       </c>
       <c r="U94">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V94">
-        <v>0.1206287826092886</v>
+        <v>0.1247810733572903</v>
       </c>
       <c r="W94">
-        <v>0.1717697029884363</v>
+        <v>0.1652697029884363</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.548312648224039</v>
+        <v>0.5671866970785922</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8999,13 +8999,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2147219500009155</v>
+        <v>0.2106701287208047</v>
       </c>
       <c r="C95">
-        <v>-3051.62852854844</v>
+        <v>-2982.26109978569</v>
       </c>
       <c r="D95">
-        <v>2349.982471451561</v>
+        <v>2419.349900214311</v>
       </c>
       <c r="E95">
         <v>4194.311000000002</v>
@@ -9032,37 +9032,37 @@
         <v>758</v>
       </c>
       <c r="M95">
-        <v>1397.449307282256</v>
+        <v>1350.946935782256</v>
       </c>
       <c r="N95">
-        <v>-639.4493072822563</v>
+        <v>-592.9469357822561</v>
       </c>
       <c r="O95">
-        <v>-140.6788476020964</v>
+        <v>-130.4483258720963</v>
       </c>
       <c r="P95">
-        <v>-498.7704596801599</v>
+        <v>-462.4986099101598</v>
       </c>
       <c r="Q95">
-        <v>-404.7704596801599</v>
+        <v>-368.4986099101598</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>0.7820071301173966</v>
+        <v>0.8104811118300993</v>
       </c>
       <c r="T95">
-        <v>8.006562004109259</v>
+        <v>7.972157969135677</v>
       </c>
       <c r="U95">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V95">
-        <v>0.1193316989253177</v>
+        <v>0.1234393413857065</v>
       </c>
       <c r="W95">
-        <v>0.1720230654760191</v>
+        <v>0.1655230654760191</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.5424168132968987</v>
+        <v>0.5610879153895749</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9081,13 +9081,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2165172741442518</v>
+        <v>0.212465452864141</v>
       </c>
       <c r="C96">
-        <v>-3149.575046103178</v>
+        <v>-3080.567311781628</v>
       </c>
       <c r="D96">
-        <v>2328.962953896823</v>
+        <v>2397.970688218374</v>
       </c>
       <c r="E96">
         <v>4271.238000000001</v>
@@ -9114,37 +9114,37 @@
         <v>758</v>
       </c>
       <c r="M96">
-        <v>1412.4756439197</v>
+        <v>1365.4732469197</v>
       </c>
       <c r="N96">
-        <v>-654.4756439196999</v>
+        <v>-607.4732469196997</v>
       </c>
       <c r="O96">
-        <v>-143.984641662334</v>
+        <v>-133.6441143223339</v>
       </c>
       <c r="P96">
-        <v>-510.4910022573659</v>
+        <v>-473.8291325973657</v>
       </c>
       <c r="Q96">
-        <v>-416.4910022573659</v>
+        <v>-379.8291325973657</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>0.9097083184702961</v>
+        <v>0.944011297135116</v>
       </c>
       <c r="T96">
-        <v>9.340989004794137</v>
+        <v>9.300850963991625</v>
       </c>
       <c r="U96">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V96">
-        <v>0.1180622127665377</v>
+        <v>0.1221261569028798</v>
       </c>
       <c r="W96">
-        <v>0.1722710372723767</v>
+        <v>0.1657710372723767</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.5366464216660807</v>
+        <v>0.5551188950130901</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2183125982875882</v>
+        <v>0.2142607770074774</v>
       </c>
       <c r="C97">
-        <v>-3247.148877240711</v>
+        <v>-3178.498987575838</v>
       </c>
       <c r="D97">
-        <v>2308.31612275929</v>
+        <v>2376.966012424163</v>
       </c>
       <c r="E97">
         <v>4348.165000000001</v>
@@ -9196,37 +9196,37 @@
         <v>758</v>
       </c>
       <c r="M97">
-        <v>1427.501980557143</v>
+        <v>1379.999558057143</v>
       </c>
       <c r="N97">
-        <v>-669.5019805571435</v>
+        <v>-621.9995580571433</v>
       </c>
       <c r="O97">
-        <v>-147.2904357225716</v>
+        <v>-136.8399027725715</v>
       </c>
       <c r="P97">
-        <v>-522.2115448345719</v>
+        <v>-485.1596552845718</v>
       </c>
       <c r="Q97">
-        <v>-428.2115448345719</v>
+        <v>-391.1596552845718</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.088489982164356</v>
+        <v>1.13095355656214</v>
       </c>
       <c r="T97">
-        <v>11.20918680575297</v>
+        <v>11.16102115678996</v>
       </c>
       <c r="U97">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V97">
-        <v>0.1168194526321531</v>
+        <v>0.1208406184091653</v>
       </c>
       <c r="W97">
-        <v>0.1725137886098637</v>
+        <v>0.1660137886098636</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.5309975119643324</v>
+        <v>0.5492755382234786</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2201079224309245</v>
+        <v>0.2160561011508137</v>
       </c>
       <c r="C98">
-        <v>-3344.359846733099</v>
+        <v>-3276.065883792889</v>
       </c>
       <c r="D98">
-        <v>2288.032153266901</v>
+        <v>2356.326116207112</v>
       </c>
       <c r="E98">
         <v>4425.092000000001</v>
@@ -9278,37 +9278,37 @@
         <v>758</v>
       </c>
       <c r="M98">
-        <v>1442.528317194587</v>
+        <v>1394.525869194587</v>
       </c>
       <c r="N98">
-        <v>-684.5283171945869</v>
+        <v>-636.5258691945867</v>
       </c>
       <c r="O98">
-        <v>-150.5962297828091</v>
+        <v>-140.0356912228091</v>
       </c>
       <c r="P98">
-        <v>-533.9320874117777</v>
+        <v>-496.4901779717776</v>
       </c>
       <c r="Q98">
-        <v>-439.9320874117777</v>
+        <v>-402.4901779717776</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.356662477705442</v>
+        <v>1.411366945702672</v>
       </c>
       <c r="T98">
-        <v>14.01148350719118</v>
+        <v>13.95127644598741</v>
       </c>
       <c r="U98">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V98">
-        <v>0.1156025833339016</v>
+        <v>0.1195818619674032</v>
       </c>
       <c r="W98">
-        <v>0.1727514826278196</v>
+        <v>0.1662514826278196</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.5254662878813707</v>
+        <v>0.5435539180336508</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9327,13 +9327,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2219032465742609</v>
+        <v>0.2178514252941501</v>
       </c>
       <c r="C99">
-        <v>-3441.217437025912</v>
+        <v>-3373.277421096021</v>
       </c>
       <c r="D99">
-        <v>2268.101562974089</v>
+        <v>2336.04157890398</v>
       </c>
       <c r="E99">
         <v>4502.019</v>
@@ -9360,37 +9360,37 @@
         <v>758</v>
       </c>
       <c r="M99">
-        <v>1457.554653832031</v>
+        <v>1409.052180332031</v>
       </c>
       <c r="N99">
-        <v>-699.5546538320307</v>
+        <v>-651.0521803320305</v>
       </c>
       <c r="O99">
-        <v>-153.9020238430467</v>
+        <v>-143.2314796730467</v>
       </c>
       <c r="P99">
-        <v>-545.6526299889839</v>
+        <v>-507.8207006589838</v>
       </c>
       <c r="Q99">
-        <v>-451.6526299889839</v>
+        <v>-413.8207006589838</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>1.803616636940589</v>
+        <v>1.878722594270229</v>
       </c>
       <c r="T99">
-        <v>18.68197800958824</v>
+        <v>18.60170192798322</v>
       </c>
       <c r="U99">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V99">
-        <v>0.1144108041242737</v>
+        <v>0.1183490592667083</v>
       </c>
       <c r="W99">
-        <v>0.1729842757381889</v>
+        <v>0.1664842757381888</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.5200491096557895</v>
+        <v>0.5379502693941285</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9409,13 +9409,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2236985707175973</v>
+        <v>0.2196467494374864</v>
       </c>
       <c r="C100">
-        <v>-3537.730803019151</v>
+        <v>-3470.142698524407</v>
       </c>
       <c r="D100">
-        <v>2248.515196980849</v>
+        <v>2316.103301475593</v>
       </c>
       <c r="E100">
         <v>4578.946</v>
@@ -9442,37 +9442,37 @@
         <v>758</v>
       </c>
       <c r="M100">
-        <v>1472.580990469474</v>
+        <v>1423.578491469474</v>
       </c>
       <c r="N100">
-        <v>-714.5809904694743</v>
+        <v>-665.5784914694739</v>
       </c>
       <c r="O100">
-        <v>-157.2078179032843</v>
+        <v>-146.4272681232843</v>
       </c>
       <c r="P100">
-        <v>-557.37317256619</v>
+        <v>-519.1512233461897</v>
       </c>
       <c r="Q100">
-        <v>-463.37317256619</v>
+        <v>-425.1512233461897</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>2.697524955410883</v>
+        <v>2.813433891405343</v>
       </c>
       <c r="T100">
-        <v>28.02296701438236</v>
+        <v>27.90255289197482</v>
       </c>
       <c r="U100">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V100">
-        <v>0.1132433469393321</v>
+        <v>0.1171414158048031</v>
       </c>
       <c r="W100">
-        <v>0.1732123179687547</v>
+        <v>0.1667123179687546</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.5147424860878733</v>
+        <v>0.5324609809309233</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2254938948609336</v>
+        <v>0.2214420735808228</v>
       </c>
       <c r="C101">
-        <v>-3633.908786088904</v>
+        <v>-3566.67050710242</v>
       </c>
       <c r="D101">
-        <v>2229.264213911097</v>
+        <v>2296.502492897581</v>
       </c>
       <c r="E101">
         <v>4655.873000000001</v>
@@ -9524,37 +9524,37 @@
         <v>758</v>
       </c>
       <c r="M101">
-        <v>1487.607327106918</v>
+        <v>1438.104802606918</v>
       </c>
       <c r="N101">
-        <v>-729.6073271069179</v>
+        <v>-680.1048026069177</v>
       </c>
       <c r="O101">
-        <v>-160.5136119635219</v>
+        <v>-149.6230565735219</v>
       </c>
       <c r="P101">
-        <v>-569.0937151433959</v>
+        <v>-530.4817460333958</v>
       </c>
       <c r="Q101">
-        <v>-475.0937151433959</v>
+        <v>-436.4817460333958</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>5.379249910821766</v>
+        <v>5.617567782810686</v>
       </c>
       <c r="T101">
-        <v>56.04593402876472</v>
+        <v>55.80510578394965</v>
       </c>
       <c r="U101">
-        <v>0.195332414333636</v>
+        <v>0.1888324143336359</v>
       </c>
       <c r="V101">
-        <v>0.1120994747480257</v>
+        <v>0.1159581691805121</v>
       </c>
       <c r="W101">
-        <v>0.1734357532855716</v>
+        <v>0.1669357532855716</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.5095430670364807</v>
+        <v>0.5270825871841461</v>
       </c>
       <c r="Z101">
         <v>0</v>
